--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -165,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,20 +454,20 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -495,37 +495,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -539,17 +539,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -563,22 +563,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -592,32 +592,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -631,17 +631,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>31</v>
       </c>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Nr</t>
   </si>
@@ -110,6 +111,39 @@
   </si>
   <si>
     <t>PHP Funktion Login</t>
+  </si>
+  <si>
+    <t>UserStory</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Aufwand/STD</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>StoryID</t>
   </si>
 </sst>
 </file>
@@ -125,12 +159,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,13 +185,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -451,23 +507,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="98.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,8 +540,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -494,38 +557,59 @@
       <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>22</v>
+      </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>23</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>24</v>
+      </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>25</v>
+      </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>26</v>
+      </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -538,18 +622,27 @@
       <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>31</v>
+      </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>32</v>
+      </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -562,23 +655,35 @@
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>51</v>
+      </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>52</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>53</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -591,33 +696,51 @@
       <c r="D17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>41</v>
+      </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>42</v>
+      </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>43</v>
+      </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>44</v>
+      </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>45</v>
+      </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -630,18 +753,30 @@
       <c r="D23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>11</v>
+      </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>12</v>
+      </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>13</v>
+      </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -649,4 +784,1233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,Tabelle1!B:F,2,0)</f>
+        <v>Als Personalleiter möchte ich mich einloggen können</v>
+      </c>
+      <c r="C2" s="1">
+        <f>VLOOKUP(A2,Tabelle1!B:F,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Tabelle1!B:F,2,0)</f>
+        <v>ERM</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Tabelle1!B:F,2,0)</f>
+        <v>DB Tabelle erstellen</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Tabelle1!B:F,2,0)</f>
+        <v>Java Login GUI</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Tabelle1!B:F,2,0)</f>
+        <v>Java Login Code</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,Tabelle1!B:F,2,0)</f>
+        <v>Java DB Anbindung</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,Tabelle1!B:F,2,0)</f>
+        <v>MD5 Verschlüsselung</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich neue Mitarbeiter anlegen können</v>
+      </c>
+      <c r="C9" s="1">
+        <f>VLOOKUP(A9,Tabelle1!B:F,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,Tabelle1!B:F,2,0)</f>
+        <v>Java GUI</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(A10,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Tabelle1!B:F,2,0)</f>
+        <v>Java Insert Code</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung  möchte ich Mitarbeiter suchen können</v>
+      </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(A12,Tabelle1!B:F,3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>51</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Tabelle1!B:F,2,0)</f>
+        <v>Java GUI</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Tabelle1!B:F,2,0)</f>
+        <v>Java Select Code</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Tabelle1!B:F,2,0)</f>
+        <v>Mitarbeiter nach Suche selektierbar machen</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Mitarbeiter verwalten (ändern + löschen) können</v>
+      </c>
+      <c r="C16" s="1">
+        <f>VLOOKUP(A16,Tabelle1!B:F,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Tabelle1!B:F,2,0)</f>
+        <v>Java GUI</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(A17,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,Tabelle1!B:F,2,0)</f>
+        <v>Java Mitarbeiter Select Code</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,Tabelle1!B:F,2,0)</f>
+        <v>Update</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(A19,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Tabelle1!B:F,2,0)</f>
+        <v>Delete</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(A20,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Tabelle1!B:F,2,0)</f>
+        <v>Rückmeldung</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(A21,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter möchte ich mich einloggen können</v>
+      </c>
+      <c r="C22" s="1">
+        <f>VLOOKUP(A22,Tabelle1!B:F,3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Tabelle1!B:F,2,0)</f>
+        <v>PHP DB Anbindung</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Tabelle1!B:F,2,0)</f>
+        <v>PHP Oberfläche</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Tabelle1!B:F,2,0)</f>
+        <v>PHP Funktion Login</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(A25,Tabelle1!B:F,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="e">
+        <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <f>VLOOKUP(A26,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="e">
+        <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <f>VLOOKUP(A27,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="e">
+        <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <f>VLOOKUP(A28,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="e">
+        <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <f>VLOOKUP(A29,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="e">
+        <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <f>VLOOKUP(A30,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="e">
+        <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <f>VLOOKUP(A31,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="e">
+        <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <f>VLOOKUP(A32,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="e">
+        <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f>VLOOKUP(A33,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="e">
+        <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <f>VLOOKUP(A34,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="e">
+        <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <f>VLOOKUP(A35,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="e">
+        <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="e">
+        <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <f>VLOOKUP(A37,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="e">
+        <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <f>VLOOKUP(A38,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="e">
+        <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <f>VLOOKUP(A39,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="e">
+        <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <f>VLOOKUP(A40,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="e">
+        <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <f>VLOOKUP(A41,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="e">
+        <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <f>VLOOKUP(A42,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="e">
+        <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <f>VLOOKUP(A43,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="e">
+        <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <f>VLOOKUP(A44,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="e">
+        <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <f>VLOOKUP(A45,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="e">
+        <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <f>VLOOKUP(A46,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="e">
+        <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <f>VLOOKUP(A47,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="e">
+        <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <f>VLOOKUP(A48,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="e">
+        <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <f>VLOOKUP(A49,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="e">
+        <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <f>VLOOKUP(A50,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="e">
+        <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <f>VLOOKUP(A51,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="e">
+        <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <f>VLOOKUP(A52,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="e">
+        <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
+        <f>VLOOKUP(A53,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="e">
+        <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="e">
+        <f>VLOOKUP(A54,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="e">
+        <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="e">
+        <f>VLOOKUP(A55,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="e">
+        <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="e">
+        <f>VLOOKUP(A56,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="e">
+        <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="e">
+        <f>VLOOKUP(A57,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="e">
+        <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="e">
+        <f>VLOOKUP(A58,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="e">
+        <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="e">
+        <f>VLOOKUP(A59,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="e">
+        <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="e">
+        <f>VLOOKUP(A60,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="e">
+        <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="e">
+        <f>VLOOKUP(A61,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="e">
+        <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="e">
+        <f>VLOOKUP(A62,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="e">
+        <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="e">
+        <f>VLOOKUP(A63,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="e">
+        <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
+        <f>VLOOKUP(A64,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="e">
+        <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <f>VLOOKUP(A65,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="e">
+        <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
+        <f>VLOOKUP(A66,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="e">
+        <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="e">
+        <f>VLOOKUP(A67,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="e">
+        <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="e">
+        <f>VLOOKUP(A68,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="e">
+        <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
+        <f>VLOOKUP(A69,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="e">
+        <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
+        <f>VLOOKUP(A70,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="e">
+        <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="e">
+        <f>VLOOKUP(A71,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="e">
+        <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="e">
+        <f>VLOOKUP(A72,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="e">
+        <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="e">
+        <f>VLOOKUP(A73,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="e">
+        <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="e">
+        <f>VLOOKUP(A74,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="e">
+        <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="e">
+        <f>VLOOKUP(A75,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="e">
+        <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="e">
+        <f>VLOOKUP(A76,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="e">
+        <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C77" t="e">
+        <f>VLOOKUP(A77,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="e">
+        <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" t="e">
+        <f>VLOOKUP(A78,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="e">
+        <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C79" t="e">
+        <f>VLOOKUP(A79,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="e">
+        <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C80" t="e">
+        <f>VLOOKUP(A80,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" t="e">
+        <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C81" t="e">
+        <f>VLOOKUP(A81,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="e">
+        <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="e">
+        <f>VLOOKUP(A82,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="e">
+        <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="e">
+        <f>VLOOKUP(A83,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="e">
+        <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="e">
+        <f>VLOOKUP(A84,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" t="e">
+        <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="e">
+        <f>VLOOKUP(A85,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="e">
+        <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="e">
+        <f>VLOOKUP(A86,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="e">
+        <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="e">
+        <f>VLOOKUP(A87,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="e">
+        <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="e">
+        <f>VLOOKUP(A88,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="e">
+        <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="e">
+        <f>VLOOKUP(A89,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" t="e">
+        <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="e">
+        <f>VLOOKUP(A90,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="e">
+        <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="e">
+        <f>VLOOKUP(A91,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" t="e">
+        <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="e">
+        <f>VLOOKUP(A92,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" t="e">
+        <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="e">
+        <f>VLOOKUP(A93,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="e">
+        <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="e">
+        <f>VLOOKUP(A94,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="e">
+        <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="e">
+        <f>VLOOKUP(A95,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="e">
+        <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="e">
+        <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="e">
+        <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="e">
+        <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="e">
+        <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="e">
+        <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -791,7 +791,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1225,8 +1225,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1244,8 +1247,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1263,8 +1269,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1274,7 +1283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1284,7 +1293,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1294,7 +1303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1304,7 +1313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1314,7 +1323,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1324,7 +1333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -192,14 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -221,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,9 +254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,13 +506,13 @@
       <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="98.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -527,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -561,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -569,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -577,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -585,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -593,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -601,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -609,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -626,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -634,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -642,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -659,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -667,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -675,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -683,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -700,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -708,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -716,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -724,7 +717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -732,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -740,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -757,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -765,7 +758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -773,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>13</v>
       </c>
@@ -791,16 +784,16 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -820,7 +813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -836,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -855,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -874,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -893,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -912,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -933,8 +926,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -952,8 +948,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -988,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1006,8 +1005,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1042,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1060,8 +1062,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1079,8 +1084,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1133,8 +1141,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1152,8 +1163,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1171,8 +1185,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1190,8 +1207,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1207,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1283,7 +1303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1293,7 +1313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1303,7 +1323,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1313,7 +1333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1323,7 +1343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1333,7 +1353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1343,7 +1363,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1353,7 +1373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1363,7 +1383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1373,7 +1393,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1383,7 +1403,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1393,7 +1413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1403,7 +1423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1413,7 +1433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1423,7 +1443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1433,7 +1453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1443,7 +1463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1453,7 +1473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1463,7 +1483,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1473,7 +1493,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1483,7 +1503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1493,7 +1513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1503,7 +1523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1513,7 +1533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1523,7 +1543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1533,7 +1553,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1543,7 +1563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1553,7 +1573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1563,7 +1583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1573,7 +1593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1583,7 +1603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1593,7 +1613,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1603,7 +1623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1613,7 +1633,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1623,7 +1643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1633,7 +1653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1643,7 +1663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1653,7 +1673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1663,7 +1683,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1673,7 +1693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1683,7 +1703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1693,7 +1713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1703,7 +1723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1713,7 +1733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1723,7 +1743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1733,7 +1753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1743,7 +1763,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1753,7 +1773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1763,7 +1783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1773,7 +1793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1783,7 +1803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1793,7 +1813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1803,7 +1823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1813,7 +1833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1823,7 +1843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1833,7 +1853,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1843,7 +1863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1853,7 +1873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1863,7 +1883,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1873,7 +1893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1883,7 +1903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1893,7 +1913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1903,7 +1923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1913,7 +1933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1923,7 +1943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1936,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1949,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1959,7 +1979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1969,7 +1989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1979,7 +1999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1989,25 +2009,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,14 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -221,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -295,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -506,20 +497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="98.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -527,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -561,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>21</v>
       </c>
@@ -569,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>22</v>
       </c>
@@ -577,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>23</v>
       </c>
@@ -585,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>24</v>
       </c>
@@ -593,7 +584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>25</v>
       </c>
@@ -601,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>26</v>
       </c>
@@ -609,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -626,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>31</v>
       </c>
@@ -634,7 +625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>32</v>
       </c>
@@ -642,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -659,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>51</v>
       </c>
@@ -667,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>52</v>
       </c>
@@ -675,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>53</v>
       </c>
@@ -683,7 +674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -700,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>41</v>
       </c>
@@ -708,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19">
         <v>42</v>
       </c>
@@ -716,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20">
         <v>43</v>
       </c>
@@ -724,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21">
         <v>44</v>
       </c>
@@ -732,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>45</v>
       </c>
@@ -740,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -757,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="B24">
         <v>11</v>
       </c>
@@ -765,7 +756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>12</v>
       </c>
@@ -773,7 +764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="B26">
         <v>13</v>
       </c>
@@ -787,20 +778,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -820,7 +811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -836,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>21</v>
       </c>
@@ -854,8 +845,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>22</v>
       </c>
@@ -874,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>23</v>
       </c>
@@ -893,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>24</v>
       </c>
@@ -915,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>25</v>
       </c>
@@ -934,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>26</v>
       </c>
@@ -953,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -969,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>31</v>
       </c>
@@ -988,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1023,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1114,8 +1108,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1207,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1229,7 +1226,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1283,7 +1280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1293,7 +1290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1303,7 +1300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1313,7 +1310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1323,7 +1320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1333,7 +1330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1343,7 +1340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1353,7 +1350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1363,7 +1360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1373,7 +1370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1383,7 +1380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1393,7 +1390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1403,7 +1400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1413,7 +1410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1423,7 +1420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1433,7 +1430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1443,7 +1440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1453,7 +1450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1463,7 +1460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1473,7 +1470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1483,7 +1480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1493,7 +1490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1503,7 +1500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1513,7 +1510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1523,7 +1520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1533,7 +1530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1543,7 +1540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1553,7 +1550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1563,7 +1560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1573,7 +1570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1583,7 +1580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1593,7 +1590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1603,7 +1600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1613,7 +1610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1623,7 +1620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1633,7 +1630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1643,7 +1640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1653,7 +1650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1663,7 +1660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1673,7 +1670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1683,7 +1680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1693,7 +1690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1703,7 +1700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1713,7 +1710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1723,7 +1720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1733,7 +1730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1743,7 +1740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1753,7 +1750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1763,7 +1760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1773,7 +1770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1783,7 +1780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1793,7 +1790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1803,7 +1800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1813,7 +1810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1823,7 +1820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1833,7 +1830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1843,7 +1840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1853,7 +1850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1863,7 +1860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1873,7 +1870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1883,7 +1880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1893,7 +1890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1903,7 +1900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1913,7 +1910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1923,7 +1920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1936,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1949,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1959,7 +1956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1969,7 +1966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1979,7 +1976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1989,25 +1986,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +323,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,20 +499,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -518,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -552,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -560,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -568,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -576,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -584,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -592,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -600,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -617,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -625,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -633,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -650,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -658,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -666,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -674,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -691,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -699,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -707,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -715,7 +717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -723,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -731,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -748,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -756,7 +758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -764,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>13</v>
       </c>
@@ -778,20 +780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -811,7 +813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -827,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -849,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -868,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -887,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -906,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -927,8 +929,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -946,8 +951,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -963,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -982,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1000,8 +1008,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1054,8 +1065,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1073,8 +1087,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1090,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1130,8 +1147,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1168,8 +1191,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1187,8 +1213,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1204,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1226,7 +1255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1270,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1280,7 +1309,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1290,7 +1319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1300,7 +1329,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1310,7 +1339,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1320,7 +1349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1330,7 +1359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1340,7 +1369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1350,7 +1379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1360,7 +1389,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1370,7 +1399,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1380,7 +1409,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1390,7 +1419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1400,7 +1429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1410,7 +1439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1420,7 +1449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1430,7 +1459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1440,7 +1469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1450,7 +1479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1460,7 +1489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1470,7 +1499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1480,7 +1509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1490,7 +1519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1500,7 +1529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1510,7 +1539,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1520,7 +1549,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1530,7 +1559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1540,7 +1569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1550,7 +1579,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1560,7 +1589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1570,7 +1599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1580,7 +1609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1590,7 +1619,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1600,7 +1629,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1610,7 +1639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1620,7 +1649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1630,7 +1659,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1640,7 +1669,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1650,7 +1679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1660,7 +1689,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1670,7 +1699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1680,7 +1709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1690,7 +1719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1700,7 +1729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1710,7 +1739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1720,7 +1749,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1730,7 +1759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1740,7 +1769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1750,7 +1779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1760,7 +1789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1770,7 +1799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1780,7 +1809,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1790,7 +1819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1800,7 +1829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1810,7 +1839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1820,7 +1849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1830,7 +1859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1840,7 +1869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1850,7 +1879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1860,7 +1889,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1870,7 +1899,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1880,7 +1909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1890,7 +1919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1900,7 +1929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1910,7 +1939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1920,7 +1949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1933,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1946,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1956,7 +1985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1966,7 +1995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1976,7 +2005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1986,25 +2015,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,6 +867,9 @@
         <v>39</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -288,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -323,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -499,20 +497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -520,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -554,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>21</v>
       </c>
@@ -562,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>22</v>
       </c>
@@ -570,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>23</v>
       </c>
@@ -578,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>24</v>
       </c>
@@ -586,7 +584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>25</v>
       </c>
@@ -594,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>26</v>
       </c>
@@ -602,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -619,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>31</v>
       </c>
@@ -627,7 +625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>32</v>
       </c>
@@ -635,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -652,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>51</v>
       </c>
@@ -660,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>52</v>
       </c>
@@ -668,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>53</v>
       </c>
@@ -676,7 +674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -693,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>41</v>
       </c>
@@ -701,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19">
         <v>42</v>
       </c>
@@ -709,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20">
         <v>43</v>
       </c>
@@ -717,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21">
         <v>44</v>
       </c>
@@ -725,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>45</v>
       </c>
@@ -733,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -750,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24">
         <v>11</v>
       </c>
@@ -758,7 +756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>12</v>
       </c>
@@ -766,7 +764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26">
         <v>13</v>
       </c>
@@ -780,20 +778,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -813,7 +811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -829,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>21</v>
       </c>
@@ -851,7 +849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>22</v>
       </c>
@@ -873,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>23</v>
       </c>
@@ -886,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>24</v>
       </c>
@@ -914,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>25</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>26</v>
       </c>
@@ -958,7 +956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -974,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>31</v>
       </c>
@@ -987,13 +985,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1044,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1312,7 +1313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1322,7 +1323,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1332,7 +1333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1342,7 +1343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1352,7 +1353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1362,7 +1363,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1372,7 +1373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1382,7 +1383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1392,7 +1393,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1402,7 +1403,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1412,7 +1413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1422,7 +1423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1432,7 +1433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1442,7 +1443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1452,7 +1453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1462,7 +1463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1472,7 +1473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1482,7 +1483,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1492,7 +1493,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1502,7 +1503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1512,7 +1513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1522,7 +1523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1532,7 +1533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1542,7 +1543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1552,7 +1553,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1562,7 +1563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1572,7 +1573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1582,7 +1583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1592,7 +1593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1602,7 +1603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1612,7 +1613,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1622,7 +1623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1632,7 +1633,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1642,7 +1643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1652,7 +1653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1662,7 +1663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1672,7 +1673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1682,7 +1683,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1692,7 +1693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1702,7 +1703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1712,7 +1713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1722,7 +1723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1732,7 +1733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1742,7 +1743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1752,7 +1753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1762,7 +1763,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1772,7 +1773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1782,7 +1783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1792,7 +1793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1802,7 +1803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1812,7 +1813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1822,7 +1823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1832,7 +1833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1842,7 +1843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1852,7 +1853,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1862,7 +1863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1872,7 +1873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1882,7 +1883,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1892,7 +1893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1902,7 +1903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1912,7 +1913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1922,7 +1923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1932,7 +1933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1942,7 +1943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1952,7 +1953,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1965,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1978,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1988,7 +1989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1998,7 +1999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2008,7 +2009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2018,25 +2019,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +323,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,20 +499,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -518,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -552,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -560,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -568,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -576,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -584,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -592,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -600,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -617,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -625,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -633,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -650,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -658,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -666,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -674,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -691,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -699,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -707,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -715,7 +717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -723,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -731,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -748,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -756,7 +758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -764,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>13</v>
       </c>
@@ -778,20 +780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -811,7 +813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -827,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -849,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -871,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -889,8 +891,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -912,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -934,7 +939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -956,7 +961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -972,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -994,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1050,8 +1055,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1259,7 +1267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1313,7 +1321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1323,7 +1331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1333,7 +1341,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1343,7 +1351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1353,7 +1361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1363,7 +1371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1373,7 +1381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1383,7 +1391,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1393,7 +1401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1403,7 +1411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1413,7 +1421,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1423,7 +1431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1433,7 +1441,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1443,7 +1451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1453,7 +1461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1463,7 +1471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1473,7 +1481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1483,7 +1491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1493,7 +1501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1503,7 +1511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1513,7 +1521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1523,7 +1531,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1533,7 +1541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1543,7 +1551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1553,7 +1561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1563,7 +1571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1573,7 +1581,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1583,7 +1591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1593,7 +1601,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1603,7 +1611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1613,7 +1621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1623,7 +1631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1633,7 +1641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1643,7 +1651,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1653,7 +1661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1663,7 +1671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1673,7 +1681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1683,7 +1691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1693,7 +1701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1703,7 +1711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1713,7 +1721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1723,7 +1731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1733,7 +1741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1743,7 +1751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1753,7 +1761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1763,7 +1771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1773,7 +1781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1783,7 +1791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1793,7 +1801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1803,7 +1811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1813,7 +1821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1823,7 +1831,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1833,7 +1841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1843,7 +1851,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1853,7 +1861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1863,7 +1871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1873,7 +1881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1883,7 +1891,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1893,7 +1901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1903,7 +1911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1913,7 +1921,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1923,7 +1931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1933,7 +1941,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1943,7 +1951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1953,7 +1961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1966,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1979,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1989,7 +1997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1999,7 +2007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2009,7 +2017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2019,25 +2027,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="SprintBurndownchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Nr</t>
   </si>
@@ -144,6 +145,18 @@
   </si>
   <si>
     <t>StoryID</t>
+  </si>
+  <si>
+    <t>Summe der Points</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t>StoryPoints</t>
+  </si>
+  <si>
+    <t>Diagonale</t>
   </si>
 </sst>
 </file>
@@ -173,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,18 +194,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -213,10 +353,278 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StoryPoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diagonale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="106844928"/>
+        <c:axId val="106846464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106844928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106846464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106846464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106844928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81421151248099599"/>
+          <c:y val="0.4422110598244185"/>
+          <c:w val="0.18578839925711041"/>
+          <c:h val="0.13856638609828945"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +662,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,17 +910,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -520,7 +928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -554,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -562,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -570,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -578,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -586,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -594,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>26</v>
       </c>
@@ -602,7 +1010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -619,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -627,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -635,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -652,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -660,7 +1068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -668,7 +1076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -676,7 +1084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -693,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -701,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -709,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -717,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -725,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>45</v>
       </c>
@@ -733,7 +1141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -750,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -758,7 +1166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -766,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -781,19 +1189,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -812,8 +1221,11 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -828,8 +1240,12 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>SUM(C2:C25)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -851,7 +1267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -873,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -895,7 +1311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -917,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -939,7 +1355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -961,7 +1377,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -977,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -999,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1021,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1037,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1059,7 +1475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1081,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1103,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -1119,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1141,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1163,7 +1579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1185,7 +1601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1207,7 +1623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1229,7 +1645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1245,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1267,7 +1683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1289,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1311,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="e">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1321,7 +1737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="e">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1331,7 +1747,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="e">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1341,7 +1757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="e">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1351,7 +1767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1361,7 +1777,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="e">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1371,7 +1787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="e">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1381,7 +1797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="e">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1391,7 +1807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="e">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1401,7 +1817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1411,7 +1827,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1421,7 +1837,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1431,7 +1847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1441,7 +1857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1451,7 +1867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1461,7 +1877,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1471,7 +1887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1481,7 +1897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1491,7 +1907,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1501,7 +1917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1511,7 +1927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1521,7 +1937,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1531,7 +1947,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1541,7 +1957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1551,7 +1967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1561,7 +1977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1571,7 +1987,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1581,7 +1997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1591,7 +2007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1601,7 +2017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1611,7 +2027,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1621,7 +2037,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1631,7 +2047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1641,7 +2057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1651,7 +2067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1661,7 +2077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1671,7 +2087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1681,7 +2097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1691,7 +2107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1701,7 +2117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1711,7 +2127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1721,7 +2137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1731,7 +2147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1741,7 +2157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1751,7 +2167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1761,7 +2177,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1771,7 +2187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1781,7 +2197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1791,7 +2207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1801,7 +2217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1811,7 +2227,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1821,7 +2237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1831,7 +2247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1841,7 +2257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1851,7 +2267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1861,7 +2277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1871,7 +2287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1881,7 +2297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1891,7 +2307,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1901,7 +2317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1911,7 +2327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1921,7 +2337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1931,7 +2347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1941,7 +2357,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1951,7 +2367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1961,7 +2377,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1974,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1987,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1997,7 +2413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2007,7 +2423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2017,7 +2433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2027,37 +2443,308 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" t="e">
         <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:F1048576 H1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>Tabelle2!H2</f>
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>A4</f>
+        <v>34</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>-2*B5+34</f>
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C17" si="0">-2*B6+34</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>A18</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="SprintBurndownchart" sheetId="3" r:id="rId3"/>
+    <sheet name="ProduktBacklog" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="SprintBurndownchart" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Nr</t>
   </si>
@@ -157,6 +162,126 @@
   </si>
   <si>
     <t>Diagonale</t>
+  </si>
+  <si>
+    <t>Als Geschäftsleiter möchte ich Urlaubsanträge einsehen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich auch über meinen Browser, meine Arbeitsstunden einsehen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Mitarbeiter möchte ich auch über meinen Browser, Urlaubsanträge stellen können. </t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich einen Arbeitsplan erstellen/ändern können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbankschema erstellen für den Dienstplan </t>
+  </si>
+  <si>
+    <t>SWT realisieren der Oberfläche</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Nachrichten DatenBank</t>
+  </si>
+  <si>
+    <t>Nachrichten PHP (Kommentarfeld)</t>
+  </si>
+  <si>
+    <t>Tabelle für PHP</t>
+  </si>
+  <si>
+    <t>2.Sprint</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich über mein Android smartphone einloggen</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Userstory</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Geschäftsleiter möchte ich an meinem Arbeitsplatz die Arbeitsstunden und damit verbundene Daten abrufen können. </t>
+  </si>
+  <si>
+    <t>Als Geschäftsleiter möchte ich eine Tagesübersicht über den aktuellen Dienstplan haben.</t>
+  </si>
+  <si>
+    <t>Als Geschäftsleiter möchte ich Veränderungsnachweise (Historie) anzeigen lassen.</t>
+  </si>
+  <si>
+    <t>Als Geschäftsleiter möchte ich eine Auswertung der gearbeiteten Stunden pro Tag der jeweiligen MA haben.</t>
+  </si>
+  <si>
+    <t>Als Geschäftsleiter möchte ich eine Statistik über die gearbeiteten Wochenenden erstellen lassen.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich einfach von meinem Arbeitsplatz aus, Berechtigungen erteilen können.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich eine Liste aller Mitarbeiter und Anwender in der auch Rechte vergeben werden können.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich Zugriff auf sämtliche Tools und Anwendungen die benutzt werden können.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich eine Stelle für Feedbacks von Anwendern und zum Erkennen von Wartungs- und Verbesserungsarbeiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Administrator möchte ich Einträge die Anwender gemacht haben ändern können. </t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich Reports erhalten, wann und von wem Einträge gemacht wurden.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich auch mit meinem Android Smartphone Urlaubsanträge stellen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Mitarbeiter möchte ich auch mit meinem Android Smartphone meine Arbeitsstunden einsehen können </t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich Kontakt zu anderen Mitarbeitern aufnehmen können.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich über einen Tausch der Mitarbeiter benachrichtigt werden bzw. eine Bestätigung abschicken.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich einen Überblick der monatlichen Stunden erstellen können.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich mit den einzelnen Mitarbeiter kommunizieren können.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich Zugriff auf die Stammdaten der Mitarbeiter haben.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich jeden Mitarbeiter nach Namen suchen.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich eine Frist setzen können, in der die MA ihre nicht möglichen Arbeitstage eintragen.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich eie freien Tage/Urlaub der MA eintragen können.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich einen Dienstplan generieren lassen.</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich Oberflächen mit swt haben</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich Kommetar hinterlassen</t>
   </si>
 </sst>
 </file>
@@ -309,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -321,11 +446,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -354,6 +547,323 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Product</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4803149606299227E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Tabelle1!$B$35:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Tabelle1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Tabelle1!$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="71513216"/>
+        <c:axId val="71540736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71513216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71540736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71540736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71513216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="94000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -523,11 +1033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106844928"/>
-        <c:axId val="106846464"/>
+        <c:axId val="109144704"/>
+        <c:axId val="109150592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106844928"/>
+        <c:axId val="109144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106846464"/>
+        <c:crossAx val="109150592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106846464"/>
+        <c:axId val="109150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +1065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106844928"/>
+        <c:crossAx val="109144704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -590,6 +1100,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -619,6 +1166,287 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+      <sheetName val="Tabelle2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>1. Sprint</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Nr</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Bezeichnung</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Story-Points</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Rang</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>20</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Als Personalleiter möchte ich mich einloggen können</v>
+          </cell>
+          <cell r="D3">
+            <v>8</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>I</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>21</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>ERM</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>22</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>DB Tabelle erstellen</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>23</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Java Login GUI</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Java Login Code</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>25</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Java DB Anbindung</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>26</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>MD5 Verschlüsselung</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>30</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Als Mitarbeiter der Personalabteilung möchte ich neue Mitarbeiter anlegen können</v>
+          </cell>
+          <cell r="D10">
+            <v>8</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>II</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>31</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Java GUI</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>32</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Java Insert Code</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>50</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Als Mitarbeiter der Personalabteilung  möchte ich Mitarbeiter suchen können</v>
+          </cell>
+          <cell r="D13">
+            <v>5</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>III</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>51</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Java GUI</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>52</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Java Select Code</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>53</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Mitarbeiter nach Suche selektierbar machen</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>40</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Als Mitarbeiter der Personalabteilung möchte ich Mitarbeiter verwalten (ändern + löschen) können</v>
+          </cell>
+          <cell r="D17">
+            <v>8</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>IV</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>41</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Java GUI</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>42</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Java Mitarbeiter Select Code</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>43</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Update</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>44</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Delete</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>45</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Rückmeldung</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>10</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Als Mitarbeiter möchte ich mich einloggen können</v>
+          </cell>
+          <cell r="D23">
+            <v>5</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>11</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>PHP DB Anbindung</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>12</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>PHP Oberfläche</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>13</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>PHP Funktion Login</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="E8">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>320</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,10 +1736,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>VLOOKUP(B2,[1]Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter möchte ich mich einloggen können</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>VLOOKUP(B3,[1]Tabelle1!B:F,2,0)</f>
+        <v>Als Personalleiter möchte ich mich einloggen können</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>VLOOKUP(B4,[1]Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich neue Mitarbeiter anlegen können</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>VLOOKUP(B5,[1]Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Mitarbeiter verwalten (ändern + löschen) können</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>VLOOKUP(B6,[1]Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung  möchte ich Mitarbeiter suchen können</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>E2+E3+E4+E5+E6</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>310</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>130</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>160</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>170</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>190</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>340</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>210</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>220</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>230</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>240</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>250</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>260</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>270</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>280</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>290</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>330</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>320</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,17 +2405,133 @@
         <v>31</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>310</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>311</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>310</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>220</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>320</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>330</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>340</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>342</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -1557,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -1579,7 +2918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -1601,7 +2940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -1623,7 +2962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1645,7 +2984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1661,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1683,7 +3022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1705,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1727,97 +3066,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="e">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>310</v>
+      </c>
+      <c r="B26" t="str">
         <f>VLOOKUP(A26,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
+        <v>Als Mitarbeiter möchte ich auch über meinen Browser, meine Arbeitsstunden einsehen können.</v>
+      </c>
+      <c r="C26">
         <f>VLOOKUP(A26,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="e">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <f>SUM(C26:C34)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>311</v>
+      </c>
+      <c r="B27" t="str">
         <f>VLOOKUP(A27,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="e">
+        <v xml:space="preserve">Datenbankschema erstellen für den Dienstplan </v>
+      </c>
+      <c r="C27">
         <f>VLOOKUP(A27,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="e">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28" t="str">
         <f>VLOOKUP(A28,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C28" t="e">
+        <v xml:space="preserve">Als Mitarbeiter möchte ich auch über meinen Browser, Urlaubsanträge stellen können. </v>
+      </c>
+      <c r="C28">
         <f>VLOOKUP(A28,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="e">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>220</v>
+      </c>
+      <c r="B29" t="str">
         <f>VLOOKUP(A29,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich einen Arbeitsplan erstellen/ändern können.</v>
+      </c>
+      <c r="C29">
         <f>VLOOKUP(A29,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="e">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>320</v>
+      </c>
+      <c r="B30" t="str">
         <f>VLOOKUP(A30,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
+        <v>Als Mitarbeiter möchte ich mich über mein Android smartphone einloggen</v>
+      </c>
+      <c r="C30">
         <f>VLOOKUP(A30,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="e">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>330</v>
+      </c>
+      <c r="B31" t="str">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
+        <v>SWT realisieren der Oberfläche</v>
+      </c>
+      <c r="C31">
         <f>VLOOKUP(A31,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="e">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>340</v>
+      </c>
+      <c r="B32" t="str">
         <f>VLOOKUP(A32,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
+        <v>Nachrichten DatenBank</v>
+      </c>
+      <c r="C32">
         <f>VLOOKUP(A32,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="e">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>341</v>
+      </c>
+      <c r="B33" t="str">
         <f>VLOOKUP(A33,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
+        <v>Nachrichten PHP (Kommentarfeld)</v>
+      </c>
+      <c r="C33">
         <f>VLOOKUP(A33,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="e">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>342</v>
+      </c>
+      <c r="B34" t="str">
         <f>VLOOKUP(A34,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C34" t="e">
+        <v>Tabelle für PHP</v>
+      </c>
+      <c r="C34">
         <f>VLOOKUP(A34,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1827,7 +3224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1837,7 +3234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1847,7 +3244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1857,7 +3254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1867,7 +3264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1877,7 +3274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1887,7 +3284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1897,7 +3294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1907,7 +3304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1917,7 +3314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1927,7 +3324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1937,7 +3334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -1947,7 +3344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -2376,6 +3773,9 @@
         <f>VLOOKUP(A90,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="e">
@@ -2399,9 +3799,6 @@
         <f>VLOOKUP(A92,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="e">
@@ -2434,10 +3831,6 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" t="e">
-        <f>VLOOKUP(A96,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -2461,15 +3854,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="e">
-        <f>VLOOKUP(A100,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1048576 H1">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="H1 A1:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2478,12 +3865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProduktBacklog" sheetId="4" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t xml:space="preserve">Datenbankschema erstellen für den Dienstplan </t>
   </si>
   <si>
-    <t>SWT realisieren der Oberfläche</t>
-  </si>
-  <si>
     <t>Alvin</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Als Mitarbeiter möchte ich Kommetar hinterlassen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</t>
   </si>
 </sst>
 </file>
@@ -455,42 +455,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -549,7 +514,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -702,11 +667,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="71513216"/>
-        <c:axId val="71540736"/>
+        <c:axId val="88499328"/>
+        <c:axId val="88500864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71513216"/>
+        <c:axId val="88499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,10 +710,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71540736"/>
+        <c:crossAx val="88500864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -756,7 +721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71540736"/>
+        <c:axId val="88500864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -805,10 +770,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71513216"/>
+        <c:crossAx val="88499328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -852,7 +817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -866,7 +831,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1033,11 +998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109144704"/>
-        <c:axId val="109150592"/>
+        <c:axId val="88530304"/>
+        <c:axId val="95048832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109144704"/>
+        <c:axId val="88530304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109150592"/>
+        <c:crossAx val="95048832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109150592"/>
+        <c:axId val="95048832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109144704"/>
+        <c:crossAx val="88530304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,30 +1703,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1779,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1797,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1815,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1833,7 +1798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1851,53 +1816,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>E2+E3+E4+E5+E6</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>70</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>90</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>100</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1908,71 +1873,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>120</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>130</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>140</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>150</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>160</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>170</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>180</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1983,7 +1948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1994,23 +1959,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>340</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>210</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>220</v>
       </c>
@@ -2018,84 +1983,84 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>230</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>240</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>250</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>260</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>270</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>280</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>290</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>330</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>300</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>320</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2133,17 +2098,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="98.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2151,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2193,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2201,7 +2166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2209,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2217,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2225,7 +2190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2233,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2258,7 +2223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2266,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2291,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2299,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2307,7 +2272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2332,7 +2297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2340,7 +2305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2348,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2356,7 +2321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2364,7 +2329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2389,7 +2354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2397,7 +2362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2405,12 +2370,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2421,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2432,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2443,7 +2408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2454,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2465,56 +2430,56 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>320</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>341</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -2530,18 +2495,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2564,7 +2529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -2584,7 +2549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2606,7 +2571,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2628,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -2650,7 +2615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2672,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2694,7 +2659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -2716,7 +2681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -2732,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -2754,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2776,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -2792,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -2814,7 +2779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -2836,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -2858,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -2874,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2896,7 +2861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -2918,7 +2883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -2940,7 +2905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -2962,7 +2927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -2984,7 +2949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3000,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3022,7 +2987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3044,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3066,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3086,7 +3051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3102,7 +3067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3118,7 +3083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3131,10 +3096,10 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3150,23 +3115,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>330</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(A31,Tabelle1!B:F,2,0)</f>
-        <v>SWT realisieren der Oberfläche</v>
+        <v>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</v>
       </c>
       <c r="C31">
         <f>VLOOKUP(A31,Tabelle1!B:F,3,0)</f>
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3182,7 +3153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3198,7 +3169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3214,7 +3185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" t="e">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3224,7 +3195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" t="e">
         <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3234,7 +3205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="e">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3244,7 +3215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3254,7 +3225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3264,7 +3235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3274,7 +3245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3284,7 +3255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3294,7 +3265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3304,7 +3275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3314,7 +3285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3324,7 +3295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3334,7 +3305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3344,7 +3315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3354,7 +3325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3364,7 +3335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3374,7 +3345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3384,7 +3355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3394,7 +3365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3404,7 +3375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3414,7 +3385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3424,7 +3395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3434,7 +3405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3444,7 +3415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3454,7 +3425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3464,7 +3435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3474,7 +3445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3484,7 +3455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3494,7 +3465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3504,7 +3475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3514,7 +3485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3524,7 +3495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3534,7 +3505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3544,7 +3515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3554,7 +3525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3564,7 +3535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3574,7 +3545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3584,7 +3555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3594,7 +3565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3604,7 +3575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3614,7 +3585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3624,7 +3595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3634,7 +3605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3644,7 +3615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3654,7 +3625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3664,7 +3635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3674,7 +3645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3684,7 +3655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3694,7 +3665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3704,7 +3675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3714,7 +3685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3724,7 +3695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3734,7 +3705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3744,7 +3715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3754,7 +3725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3764,7 +3735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3777,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3790,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3800,7 +3771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3810,7 +3781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3820,7 +3791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3830,25 +3801,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -3873,11 +3844,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
@@ -16,12 +16,12 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Nr</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich Einblick in den Dienstplan haben</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich den Dienstplan verändern können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich Stunden in den Dienstplan eintragen können</t>
+  </si>
+  <si>
+    <t>Witka</t>
   </si>
 </sst>
 </file>
@@ -667,11 +679,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="88499328"/>
-        <c:axId val="88500864"/>
+        <c:axId val="147939128"/>
+        <c:axId val="147939512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88499328"/>
+        <c:axId val="147939128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +725,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88500864"/>
+        <c:crossAx val="147939512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -721,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88500864"/>
+        <c:axId val="147939512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -773,7 +785,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88499328"/>
+        <c:crossAx val="147939128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -998,11 +1010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88530304"/>
-        <c:axId val="95048832"/>
+        <c:axId val="148106512"/>
+        <c:axId val="148112904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88530304"/>
+        <c:axId val="148106512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95048832"/>
+        <c:crossAx val="148112904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95048832"/>
+        <c:axId val="148112904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88530304"/>
+        <c:crossAx val="148106512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1141,7 +1153,7 @@
       <sheetName val="Tabelle2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="E1" t="str">
             <v>1. Sprint</v>
@@ -1415,9 +1427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1455,9 +1467,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1492,7 +1504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1527,7 +1539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1701,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,6 +2073,30 @@
       </c>
       <c r="C36" s="11" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>330</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>340</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>350</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2096,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,6 +2521,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>330</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>340</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>350</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2496,7 +2565,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -3153,7 +3222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3169,7 +3238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3185,37 +3254,71 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B35" t="e">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35" t="str">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
+        <v>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</v>
+      </c>
+      <c r="C35">
         <f>VLOOKUP(A35,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B36" t="e">
-        <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C36" t="e">
-        <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B37" t="e">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37" t="str">
         <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C37" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Stunden in den Dienstplan eintragen können</v>
+      </c>
+      <c r="C37">
         <f>VLOOKUP(A37,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3225,7 +3328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3235,7 +3338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3245,7 +3348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3255,7 +3358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3265,7 +3368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3275,7 +3378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3285,7 +3388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3295,7 +3398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3305,7 +3408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3315,7 +3418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -679,11 +679,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="147939128"/>
-        <c:axId val="147939512"/>
+        <c:axId val="225142528"/>
+        <c:axId val="225144096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147939128"/>
+        <c:axId val="225142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +725,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147939512"/>
+        <c:crossAx val="225144096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147939512"/>
+        <c:axId val="225144096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -785,7 +785,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147939128"/>
+        <c:crossAx val="225142528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1010,11 +1010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148106512"/>
-        <c:axId val="148112904"/>
+        <c:axId val="218255320"/>
+        <c:axId val="146141624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148106512"/>
+        <c:axId val="218255320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148112904"/>
+        <c:crossAx val="146141624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148112904"/>
+        <c:axId val="146141624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148106512"/>
+        <c:crossAx val="218255320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>87</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>88</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>89</v>
@@ -2565,7 +2565,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,15 +3256,15 @@
     </row>
     <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(A35,Tabelle1!B:F,2,0)</f>
-        <v>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</v>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Einblick in den Dienstplan haben</v>
       </c>
       <c r="C35">
         <f>VLOOKUP(A35,Tabelle1!B:F,3,0)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>90</v>
@@ -3276,9 +3276,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>88</v>
@@ -3298,15 +3298,15 @@
     </row>
     <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B37" t="str">
-        <f>VLOOKUP(A37,Tabelle1!B:F,2,0)</f>
-        <v>Als Mitarbeiter der Personalabteilung möchte ich Stunden in den Dienstplan eintragen können</v>
+        <f>VLOOKUP(A36,Tabelle1!B:F,2,0)</f>
+        <v>Als Mitarbeiter der Personalabteilung möchte ich den Dienstplan verändern können</v>
       </c>
       <c r="C37">
-        <f>VLOOKUP(A37,Tabelle1!B:F,3,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
         <v>90</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -568,7 +568,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -679,11 +678,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="225142528"/>
-        <c:axId val="225144096"/>
+        <c:axId val="148120704"/>
+        <c:axId val="148120312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225142528"/>
+        <c:axId val="148120704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +724,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225144096"/>
+        <c:crossAx val="148120312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225144096"/>
+        <c:axId val="148120312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -785,7 +784,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225142528"/>
+        <c:crossAx val="148120704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1010,11 +1009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218255320"/>
-        <c:axId val="146141624"/>
+        <c:axId val="220221104"/>
+        <c:axId val="220221496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218255320"/>
+        <c:axId val="220221104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146141624"/>
+        <c:crossAx val="220221496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146141624"/>
+        <c:axId val="220221496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218255320"/>
+        <c:crossAx val="220221104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2565,7 +2564,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,6 +3283,7 @@
         <v>88</v>
       </c>
       <c r="C36">
+        <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
         <v>13</v>
       </c>
       <c r="D36" t="s">
@@ -3305,8 +3305,8 @@
         <v>Als Mitarbeiter der Personalabteilung möchte ich den Dienstplan verändern können</v>
       </c>
       <c r="C37">
-        <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A37,Tabelle1!B:F,3,0)</f>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>90</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -299,8 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,17 +525,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -568,7 +558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -577,7 +566,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -585,15 +573,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.4803149606299227E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.72088764946048411"/>
+          <c:y val="0.14393518518518525"/>
+          <c:w val="0.89019685039370089"/>
+          <c:h val="0.72088764946048423"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -617,7 +604,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>[2]Tabelle1!$B$35:$B$46</c:f>
@@ -654,7 +640,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>[2]Tabelle1!$E$8</c:f>
@@ -668,28 +653,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="148120704"/>
-        <c:axId val="148120312"/>
+        <c:axId val="85916288"/>
+        <c:axId val="87781760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148120704"/>
+        <c:axId val="85916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -724,20 +699,18 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120312"/>
+        <c:crossAx val="87781760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148120312"/>
+        <c:axId val="87781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -755,7 +728,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -784,7 +756,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120704"/>
+        <c:crossAx val="85916288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -804,7 +776,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -833,7 +804,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -841,24 +812,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -927,7 +886,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -997,51 +955,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="220221104"/>
-        <c:axId val="220221496"/>
+        <c:axId val="138338688"/>
+        <c:axId val="138340224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220221104"/>
+        <c:axId val="138338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221496"/>
+        <c:crossAx val="138340224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220221496"/>
+        <c:axId val="138340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221104"/>
+        <c:crossAx val="138338688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,21 +994,19 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81421151248099599"/>
+          <c:x val="0.8142115124809961"/>
           <c:y val="0.4422110598244185"/>
-          <c:w val="0.18578839925711041"/>
-          <c:h val="0.13856638609828945"/>
+          <c:w val="0.18578839925711044"/>
+          <c:h val="0.13856638609828947"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1145,7 +1085,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
@@ -1402,7 +1342,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
@@ -1426,9 +1366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1466,9 +1406,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1500,10 +1440,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,10 +1474,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1711,19 +1649,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1755,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1773,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1791,7 +1729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1809,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1827,13 +1765,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="E7">
         <f>E2+E3+E4+E5+E6</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>60</v>
       </c>
@@ -1841,7 +1779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>70</v>
       </c>
@@ -1849,7 +1787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>80</v>
       </c>
@@ -1857,7 +1795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>90</v>
       </c>
@@ -1865,7 +1803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1873,7 +1811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1884,7 +1822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>110</v>
       </c>
@@ -1892,7 +1830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>120</v>
       </c>
@@ -1900,7 +1838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>130</v>
       </c>
@@ -1908,7 +1846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17">
         <v>140</v>
       </c>
@@ -1916,7 +1854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18">
         <v>150</v>
       </c>
@@ -1924,7 +1862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19">
         <v>160</v>
       </c>
@@ -1932,7 +1870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20">
         <v>170</v>
       </c>
@@ -1940,7 +1878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>180</v>
       </c>
@@ -1948,7 +1886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1959,7 +1897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1970,7 +1908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <v>340</v>
       </c>
@@ -1978,7 +1916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25">
         <v>210</v>
       </c>
@@ -1986,7 +1924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26">
         <v>220</v>
       </c>
@@ -1994,7 +1932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27">
         <v>230</v>
       </c>
@@ -2002,7 +1940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="B28">
         <v>240</v>
       </c>
@@ -2010,7 +1948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="B29">
         <v>250</v>
       </c>
@@ -2018,7 +1956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30">
         <v>260</v>
       </c>
@@ -2026,7 +1964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="B31">
         <v>270</v>
       </c>
@@ -2034,7 +1972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="B32">
         <v>280</v>
       </c>
@@ -2042,7 +1980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>290</v>
       </c>
@@ -2050,7 +1988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>330</v>
       </c>
@@ -2058,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>300</v>
       </c>
@@ -2066,7 +2004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>320</v>
       </c>
@@ -2074,7 +2012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>330</v>
       </c>
@@ -2082,7 +2020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>340</v>
       </c>
@@ -2090,7 +2028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2130,20 +2068,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2151,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2193,7 +2131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2201,7 +2139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2209,7 +2147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2217,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2225,7 +2163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2233,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2258,7 +2196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2266,7 +2204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2291,7 +2229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2299,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2307,7 +2245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2332,7 +2270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2340,7 +2278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2348,7 +2286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2356,7 +2294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2364,7 +2302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2389,7 +2327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2397,7 +2335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2405,12 +2343,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2421,7 +2359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2432,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2443,7 +2381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2454,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2465,7 +2403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2476,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35">
         <v>330</v>
       </c>
@@ -2487,7 +2425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36">
         <v>340</v>
       </c>
@@ -2498,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37">
         <v>341</v>
       </c>
@@ -2509,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38">
         <v>342</v>
       </c>
@@ -2520,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2531,7 +2469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40">
         <v>360</v>
       </c>
@@ -2542,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41">
         <v>370</v>
       </c>
@@ -2560,21 +2498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="104.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2597,7 +2535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -2617,7 +2555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2639,7 +2577,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2661,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>23</v>
       </c>
@@ -2683,7 +2621,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2705,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2727,7 +2665,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>26</v>
       </c>
@@ -2749,7 +2687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -2765,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>31</v>
       </c>
@@ -2787,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2809,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -2825,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>51</v>
       </c>
@@ -2847,7 +2785,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>52</v>
       </c>
@@ -2869,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>53</v>
       </c>
@@ -2891,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -2907,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2929,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>42</v>
       </c>
@@ -2951,7 +2889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>43</v>
       </c>
@@ -2973,7 +2911,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>44</v>
       </c>
@@ -2995,7 +2933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3017,7 +2955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3033,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3055,7 +2993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3077,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3099,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3119,7 +3057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3135,7 +3073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3151,7 +3089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3167,7 +3105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3183,7 +3121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3205,7 +3143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3220,8 +3158,14 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3236,8 +3180,14 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3253,7 +3203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3275,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>360</v>
       </c>
@@ -3296,7 +3246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3318,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3328,7 +3278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3338,7 +3288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3348,7 +3298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3358,7 +3308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3368,7 +3318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3378,7 +3328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3388,7 +3338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3398,7 +3348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3408,7 +3358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3418,7 +3368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3428,7 +3378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3438,7 +3388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3448,7 +3398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3458,7 +3408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3468,7 +3418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3478,7 +3428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3488,7 +3438,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3498,7 +3448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3508,7 +3458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3518,7 +3468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3528,7 +3478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3538,7 +3488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3548,7 +3498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3558,7 +3508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3568,7 +3518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3578,7 +3528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3588,7 +3538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3598,7 +3548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3608,7 +3558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3618,7 +3568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3628,7 +3578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3638,7 +3588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3648,7 +3598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3658,7 +3608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3668,7 +3618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3678,7 +3628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3688,7 +3638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3698,7 +3648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3708,7 +3658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3718,7 +3668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3728,7 +3678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3738,7 +3688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3748,7 +3698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3758,7 +3708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3768,7 +3718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3778,7 +3728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3788,7 +3738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3798,7 +3748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3808,7 +3758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3818,7 +3768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3828,7 +3778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3838,7 +3788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3851,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3864,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3874,7 +3824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3884,7 +3834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3894,7 +3844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3904,25 +3854,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -3940,21 +3890,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3968,7 +3918,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <f>Tabelle2!H2</f>
         <v>34</v>
@@ -3984,7 +3934,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3999,7 +3949,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4014,7 +3964,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4029,7 +3979,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4044,7 +3994,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4059,7 +4009,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4074,7 +4024,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4089,7 +4039,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4104,7 +4054,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4119,7 +4069,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4134,7 +4084,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4149,7 +4099,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4164,7 +4114,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4179,7 +4129,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4194,12 +4144,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -568,6 +568,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -678,11 +679,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="148120704"/>
-        <c:axId val="148120312"/>
+        <c:axId val="213953088"/>
+        <c:axId val="213964600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148120704"/>
+        <c:axId val="213953088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +725,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120312"/>
+        <c:crossAx val="213964600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -732,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148120312"/>
+        <c:axId val="213964600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -784,7 +785,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120704"/>
+        <c:crossAx val="213953088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1009,11 +1010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220221104"/>
-        <c:axId val="220221496"/>
+        <c:axId val="214441360"/>
+        <c:axId val="214443792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220221104"/>
+        <c:axId val="214441360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221496"/>
+        <c:crossAx val="214443792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220221496"/>
+        <c:axId val="214443792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221104"/>
+        <c:crossAx val="214441360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
@@ -2133,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2563,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,6 +3115,12 @@
       <c r="D26" t="s">
         <v>41</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
       <c r="H26">
         <f>SUM(C26:C34)</f>
         <v>150</v>
@@ -3252,8 +3259,14 @@
       <c r="D34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3296,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3328,7 +3341,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -302,8 +302,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,7 +529,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -562,6 +572,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -570,6 +581,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -585,6 +597,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -608,6 +621,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>[2]Tabelle1!$B$35:$B$46</c:f>
@@ -644,6 +658,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>[2]Tabelle1!$E$8</c:f>
@@ -657,17 +672,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="86639744"/>
-        <c:axId val="86641280"/>
+        <c:axId val="169902848"/>
+        <c:axId val="169904384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86639744"/>
+        <c:axId val="169902848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -699,21 +725,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86641280"/>
+        <c:crossAx val="169904384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86641280"/>
+        <c:axId val="169904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -731,6 +759,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -756,10 +785,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86639744"/>
+        <c:crossAx val="169902848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -779,6 +808,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -802,7 +832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -815,12 +845,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -889,6 +931,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -958,34 +1001,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88516864"/>
-        <c:axId val="88526848"/>
+        <c:smooth val="0"/>
+        <c:axId val="169921536"/>
+        <c:axId val="170459904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88516864"/>
+        <c:axId val="169921536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88526848"/>
+        <c:crossAx val="170459904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88526848"/>
+        <c:axId val="170459904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88516864"/>
+        <c:crossAx val="169921536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,9 +1062,11 @@
           <c:h val="0.13856638609828953"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1087,7 +1149,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
@@ -1344,7 +1406,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
@@ -1368,7 +1430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1442,6 +1504,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1476,6 +1539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1651,19 +1715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -1677,7 +1741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1695,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1713,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1731,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1749,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1767,13 +1831,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>E2+E3+E4+E5+E6</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>60</v>
       </c>
@@ -1781,7 +1845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>70</v>
       </c>
@@ -1789,7 +1853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>80</v>
       </c>
@@ -1797,7 +1861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>90</v>
       </c>
@@ -1805,7 +1869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1813,7 +1877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1824,7 +1888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>110</v>
       </c>
@@ -1832,7 +1896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>120</v>
       </c>
@@ -1840,7 +1904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>130</v>
       </c>
@@ -1848,7 +1912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>140</v>
       </c>
@@ -1856,7 +1920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>150</v>
       </c>
@@ -1864,7 +1928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>160</v>
       </c>
@@ -1872,7 +1936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>170</v>
       </c>
@@ -1880,7 +1944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>180</v>
       </c>
@@ -1888,7 +1952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1899,7 +1963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1910,7 +1974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>340</v>
       </c>
@@ -1918,7 +1982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>210</v>
       </c>
@@ -1926,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>220</v>
       </c>
@@ -1934,7 +1998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>230</v>
       </c>
@@ -1942,7 +2006,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>240</v>
       </c>
@@ -1950,7 +2014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>250</v>
       </c>
@@ -1958,7 +2022,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>260</v>
       </c>
@@ -1966,7 +2030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>270</v>
       </c>
@@ -1974,7 +2038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>280</v>
       </c>
@@ -1982,7 +2046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>290</v>
       </c>
@@ -1990,7 +2054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>330</v>
       </c>
@@ -1998,7 +2062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>300</v>
       </c>
@@ -2006,7 +2070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>320</v>
       </c>
@@ -2014,7 +2078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>330</v>
       </c>
@@ -2022,7 +2086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>340</v>
       </c>
@@ -2030,7 +2094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2070,20 +2134,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +2155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2133,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2141,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2149,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2157,7 +2221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2165,7 +2229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2173,7 +2237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2198,7 +2262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2206,7 +2270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2231,7 +2295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2239,7 +2303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2247,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2272,7 +2336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2280,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2288,7 +2352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2296,7 +2360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2304,7 +2368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2321,7 +2385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2329,7 +2393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2337,7 +2401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2345,12 +2409,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2361,7 +2425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2372,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2383,7 +2447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2394,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2405,7 +2469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2416,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>330</v>
       </c>
@@ -2427,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>340</v>
       </c>
@@ -2438,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>341</v>
       </c>
@@ -2449,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>342</v>
       </c>
@@ -2460,7 +2524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2471,7 +2535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>360</v>
       </c>
@@ -2482,7 +2546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>370</v>
       </c>
@@ -2500,21 +2564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="104.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2537,7 +2601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -2557,7 +2621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2579,7 +2643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2601,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -2623,7 +2687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2645,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2667,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -2689,7 +2753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -2705,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -2727,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2749,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -2765,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -2787,7 +2851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -2809,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -2831,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -2847,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2869,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -2891,7 +2955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -2913,7 +2977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -2935,7 +2999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -2957,7 +3021,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -2973,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2995,7 +3059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3017,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3039,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3059,7 +3123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3075,7 +3139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3094,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3113,7 +3177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3129,7 +3193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3151,7 +3215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3173,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3195,7 +3259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3211,7 +3275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3233,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>360</v>
       </c>
@@ -3254,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3276,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3286,7 +3350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3296,7 +3360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3306,7 +3370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3316,7 +3380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3326,7 +3390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3336,7 +3400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3346,7 +3410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3356,7 +3420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3366,7 +3430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3376,7 +3440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3386,7 +3450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3396,7 +3460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3406,7 +3470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3416,7 +3480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3426,7 +3490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3436,7 +3500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3446,7 +3510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3456,7 +3520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3466,7 +3530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3476,7 +3540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3486,7 +3550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3496,7 +3560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3506,7 +3570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3516,7 +3580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3526,7 +3590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3536,7 +3600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3546,7 +3610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3556,7 +3620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3566,7 +3630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3576,7 +3640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3586,7 +3650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3596,7 +3660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3606,7 +3670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3616,7 +3680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3626,7 +3690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3636,7 +3700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3646,7 +3710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3656,7 +3720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3666,7 +3730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3676,7 +3740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3686,7 +3750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3696,7 +3760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3706,7 +3770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3716,7 +3780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3726,7 +3790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3736,7 +3800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3746,7 +3810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3756,7 +3820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3766,7 +3830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3776,7 +3840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3786,7 +3850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3796,7 +3860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3809,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3822,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3832,7 +3896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3842,7 +3906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3852,7 +3916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3862,25 +3926,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -3898,21 +3962,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3926,7 +3990,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Tabelle2!H2</f>
         <v>34</v>
@@ -3942,7 +4006,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3957,7 +4021,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3972,7 +4036,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -3987,7 +4051,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4002,7 +4066,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4017,7 +4081,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4032,7 +4096,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4047,7 +4111,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4062,7 +4126,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4077,7 +4141,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4092,7 +4156,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4107,7 +4171,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4122,7 +4186,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4137,7 +4201,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4152,12 +4216,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProduktBacklog" sheetId="4" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Nr</t>
   </si>
@@ -467,7 +467,14 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -526,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -678,11 +685,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="148120704"/>
-        <c:axId val="148120312"/>
+        <c:axId val="117812608"/>
+        <c:axId val="130110592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148120704"/>
+        <c:axId val="117812608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +728,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120312"/>
+        <c:crossAx val="130110592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -732,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148120312"/>
+        <c:axId val="130110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -781,10 +788,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148120704"/>
+        <c:crossAx val="117812608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -828,7 +835,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -842,7 +849,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1009,11 +1016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220221104"/>
-        <c:axId val="220221496"/>
+        <c:axId val="117741440"/>
+        <c:axId val="117742976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220221104"/>
+        <c:axId val="117741440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221496"/>
+        <c:crossAx val="117742976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220221496"/>
+        <c:axId val="117742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220221104"/>
+        <c:crossAx val="117741440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,6 +1065,236 @@
           <c:h val="0.13856638609828945"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StoryPoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$A$27:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diagonale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$C$27:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="169761792"/>
+        <c:axId val="89469696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="169761792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89469696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89469696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="169761792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1141,6 +1378,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1426,9 +1693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1466,9 +1733,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,7 +1770,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1538,7 +1805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1718,12 +1985,12 @@
       <selection activeCell="B37" sqref="B37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +2004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1755,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1773,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1791,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1809,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1827,13 +2094,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>E2+E3+E4+E5+E6</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>60</v>
       </c>
@@ -1841,7 +2108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>70</v>
       </c>
@@ -1849,7 +2116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>80</v>
       </c>
@@ -1857,7 +2124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>90</v>
       </c>
@@ -1865,7 +2132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1873,7 +2140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1884,7 +2151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>110</v>
       </c>
@@ -1892,7 +2159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>120</v>
       </c>
@@ -1900,7 +2167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>130</v>
       </c>
@@ -1908,7 +2175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>140</v>
       </c>
@@ -1916,7 +2183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>150</v>
       </c>
@@ -1924,7 +2191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>160</v>
       </c>
@@ -1932,7 +2199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>170</v>
       </c>
@@ -1940,7 +2207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>180</v>
       </c>
@@ -1948,7 +2215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1959,7 +2226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1970,7 +2237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>340</v>
       </c>
@@ -1978,7 +2245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>210</v>
       </c>
@@ -1986,7 +2253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>220</v>
       </c>
@@ -1994,7 +2261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>230</v>
       </c>
@@ -2002,7 +2269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>240</v>
       </c>
@@ -2010,7 +2277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>250</v>
       </c>
@@ -2018,7 +2285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>260</v>
       </c>
@@ -2026,7 +2293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>270</v>
       </c>
@@ -2034,7 +2301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>280</v>
       </c>
@@ -2042,7 +2309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>290</v>
       </c>
@@ -2050,7 +2317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>330</v>
       </c>
@@ -2058,7 +2325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>300</v>
       </c>
@@ -2066,7 +2333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>320</v>
       </c>
@@ -2074,7 +2341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>330</v>
       </c>
@@ -2082,7 +2349,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>340</v>
       </c>
@@ -2090,7 +2357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2137,13 +2404,13 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2151,7 +2418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2193,7 +2460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2201,7 +2468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2209,7 +2476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2217,7 +2484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2225,7 +2492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2233,7 +2500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2258,7 +2525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2266,7 +2533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2291,7 +2558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2299,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2307,7 +2574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2332,7 +2599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2340,7 +2607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2348,7 +2615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2356,7 +2623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2364,7 +2631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2389,7 +2656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2397,7 +2664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2405,12 +2672,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2421,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2432,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2443,7 +2710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2454,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2465,7 +2732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2476,7 +2743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>330</v>
       </c>
@@ -2487,7 +2754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>340</v>
       </c>
@@ -2498,7 +2765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>341</v>
       </c>
@@ -2509,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>342</v>
       </c>
@@ -2520,7 +2787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>350</v>
       </c>
@@ -2531,7 +2798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>360</v>
       </c>
@@ -2542,7 +2809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>370</v>
       </c>
@@ -2563,18 +2830,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="104.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2597,7 +2866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -2617,7 +2886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -2639,7 +2908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2661,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -2683,7 +2952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2705,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2727,7 +2996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -2749,7 +3018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -2765,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -2787,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2809,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -2825,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -2847,7 +3116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -2869,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -2891,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -2907,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2929,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -2951,7 +3220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -2973,7 +3242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -2995,7 +3264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3017,7 +3286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3033,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3055,7 +3324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3077,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3098,8 +3367,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f>SUM(C26:C34)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3114,12 +3387,14 @@
       <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="H26">
-        <f>SUM(C26:C34)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3134,8 +3409,14 @@
       <c r="D27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3150,8 +3431,14 @@
       <c r="D28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3166,8 +3453,11 @@
       <c r="D29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3182,8 +3472,14 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3205,7 +3501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3220,8 +3516,14 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3236,8 +3538,14 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3252,8 +3560,14 @@
       <c r="D34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3275,7 +3589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>360</v>
       </c>
@@ -3296,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3317,8 +3631,12 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>SUM(C27:C37)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="e">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3328,7 +3646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="e">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3338,7 +3656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" t="e">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3348,7 +3666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="e">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3358,7 +3676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" t="e">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3368,7 +3686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" t="e">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3378,7 +3696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" t="e">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3388,7 +3706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" t="e">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3398,7 +3716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="e">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3408,7 +3726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" t="e">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3418,7 +3736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3428,7 +3746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3438,7 +3756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3448,7 +3766,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3458,7 +3776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3468,7 +3786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3478,7 +3796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3488,7 +3806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3498,7 +3816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3508,7 +3826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3518,7 +3836,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3528,7 +3846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3538,7 +3856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3548,7 +3866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3558,7 +3876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3568,7 +3886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3578,7 +3896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3588,7 +3906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3598,7 +3916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3608,7 +3926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3618,7 +3936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3628,7 +3946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3638,7 +3956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3648,7 +3966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3658,7 +3976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3668,7 +3986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3678,7 +3996,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3688,7 +4006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3698,7 +4016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3708,7 +4026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3718,7 +4036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3728,7 +4046,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3738,7 +4056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3748,7 +4066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3758,7 +4076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3768,7 +4086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3778,7 +4096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3788,7 +4106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3798,7 +4116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3808,7 +4126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3818,7 +4136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3828,7 +4146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3838,7 +4156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3851,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3864,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3874,7 +4192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3884,7 +4202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3894,7 +4212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -3904,25 +4222,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -3941,17 +4259,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4204,6 +4522,198 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>Tabelle2!H37</f>
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>A27</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>160</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>-7.6*B28+163</f>
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C40" si="1">-7.6*B29+163</f>
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>120</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>109.80000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>94.600000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>71.800000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <f>A41</f>
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProduktBacklog" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Nr</t>
   </si>
@@ -134,21 +134,6 @@
     <t>Aufwand/STD</t>
   </si>
   <si>
-    <t>Dominik</t>
-  </si>
-  <si>
-    <t>Arzu</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
     <t>StoryID</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t xml:space="preserve">Datenbankschema erstellen für den Dienstplan </t>
   </si>
   <si>
-    <t>Alvin</t>
-  </si>
-  <si>
     <t>Nachrichten DatenBank</t>
   </si>
   <si>
@@ -293,7 +275,22 @@
     <t>Als Mitarbeiter der Personalabteilung möchte ich Stunden in den Dienstplan eintragen können</t>
   </si>
   <si>
-    <t>Witka</t>
+    <t>Daniela Nikolic</t>
+  </si>
+  <si>
+    <t>Dominik Witka</t>
+  </si>
+  <si>
+    <t>Nicolas Balss</t>
+  </si>
+  <si>
+    <t>Alvin Bernt</t>
+  </si>
+  <si>
+    <t>Arzu Camdal</t>
+  </si>
+  <si>
+    <t>Florian Baumann</t>
   </si>
 </sst>
 </file>
@@ -685,11 +682,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="117812608"/>
-        <c:axId val="130110592"/>
+        <c:axId val="123321728"/>
+        <c:axId val="123757696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117812608"/>
+        <c:axId val="123321728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130110592"/>
+        <c:crossAx val="123757696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130110592"/>
+        <c:axId val="123757696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -791,7 +788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117812608"/>
+        <c:crossAx val="123321728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1016,11 +1013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117741440"/>
-        <c:axId val="117742976"/>
+        <c:axId val="123246464"/>
+        <c:axId val="123248000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117741440"/>
+        <c:axId val="123246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117742976"/>
+        <c:crossAx val="123248000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117742976"/>
+        <c:axId val="123248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117741440"/>
+        <c:crossAx val="123246464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,11 +1252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169761792"/>
-        <c:axId val="89469696"/>
+        <c:axId val="125345792"/>
+        <c:axId val="125347328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169761792"/>
+        <c:axId val="125345792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89469696"/>
+        <c:crossAx val="125347328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89469696"/>
+        <c:axId val="125347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169761792"/>
+        <c:crossAx val="125345792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1992,16 +1989,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,7 +2102,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2113,7 +2110,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2121,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,7 +2126,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2137,7 +2134,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2145,7 @@
         <v>310</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2156,7 +2153,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2164,7 +2161,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2172,7 +2169,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2180,7 +2177,7 @@
         <v>140</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,7 +2185,7 @@
         <v>150</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,7 +2193,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2204,7 +2201,7 @@
         <v>170</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2212,7 +2209,7 @@
         <v>180</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2223,7 +2220,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2234,7 +2231,7 @@
         <v>200</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2242,7 +2239,7 @@
         <v>340</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2250,7 +2247,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2258,7 +2255,7 @@
         <v>220</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2266,7 +2263,7 @@
         <v>230</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,7 +2271,7 @@
         <v>240</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2282,7 +2279,7 @@
         <v>250</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2290,7 +2287,7 @@
         <v>260</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2298,7 +2295,7 @@
         <v>270</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2306,7 +2303,7 @@
         <v>280</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -2314,7 +2311,7 @@
         <v>290</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -2322,7 +2319,7 @@
         <v>330</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -2330,7 +2327,7 @@
         <v>300</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -2338,7 +2335,7 @@
         <v>320</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -2346,7 +2343,7 @@
         <v>330</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -2354,7 +2351,7 @@
         <v>340</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -2362,32 +2359,32 @@
         <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2682,7 +2679,7 @@
         <v>310</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -2693,7 +2690,7 @@
         <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2704,7 +2701,7 @@
         <v>200</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>20</v>
@@ -2715,7 +2712,7 @@
         <v>310</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2726,7 +2723,7 @@
         <v>220</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>42</v>
@@ -2737,7 +2734,7 @@
         <v>320</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>13</v>
@@ -2748,7 +2745,7 @@
         <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -2759,7 +2756,7 @@
         <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -2770,7 +2767,7 @@
         <v>341</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>13</v>
@@ -2781,7 +2778,7 @@
         <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -2792,7 +2789,7 @@
         <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>20</v>
@@ -2803,7 +2800,7 @@
         <v>360</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>13</v>
@@ -2814,7 +2811,7 @@
         <v>370</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>8</v>
@@ -2830,22 +2827,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="62.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -2863,7 +2861,7 @@
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2899,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2921,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2943,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2965,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2987,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3009,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3047,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3069,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3107,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3129,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3151,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3189,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3211,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3233,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3255,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3277,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3315,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3337,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3359,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3385,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3407,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3429,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3451,7 +3449,7 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3470,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3492,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3514,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3536,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3558,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3580,7 +3578,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3594,14 +3592,14 @@
         <v>360</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3623,7 +3621,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4248,7 +4246,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4261,7 +4259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4274,13 +4272,13 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -4524,13 +4522,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -7,21 +7,20 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ProduktBacklog" sheetId="4" r:id="rId1"/>
+    <sheet name="Produktbacklog" sheetId="5" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
     <sheet name="SprintBurndownchart" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
   <si>
     <t>Nr</t>
   </si>
@@ -257,12 +256,6 @@
     <t>Als Mitarbeiter der Personalabteilung möchte ich einen Dienstplan generieren lassen.</t>
   </si>
   <si>
-    <t>Als Mitarbeiter der Personalabteilung möchte ich Oberflächen mit swt haben</t>
-  </si>
-  <si>
-    <t>Als Mitarbeiter möchte ich Kommetar hinterlassen</t>
-  </si>
-  <si>
     <t>Als Mitarbeiter möchte ich mich auf einer SWT-Oberfläche einloggen, Daten hinzufügen, ändern und löschen können</t>
   </si>
   <si>
@@ -291,6 +284,66 @@
   </si>
   <si>
     <t>Florian Baumann</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Product Burndown Chart</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalbteilung möchte ich ein ansprechendes und simples Interface in der Diensplanverwaltung (FX)</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalbteilung möchte ich ein ansprechendes und simples Menü</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich meinen Wochenplan auf meinem Android Handy einsehen können</t>
+  </si>
+  <si>
+    <t>3.Sprint</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich ein ansprechendes und einheitliches Design der Website</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich ein Profil</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich sehen ob mein Urlaubsantrag genehmigt wurde</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich meinen Kollegen Nachrichten schreiben und empfangen können</t>
   </si>
 </sst>
 </file>
@@ -306,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -460,11 +519,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -542,36 +614,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Product</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Burndown Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -580,34 +623,44 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.4803149606299227E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!#REF!</c:f>
+              <c:f>Produktbacklog!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Product Burndown Chart</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -622,51 +675,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Produktbacklog!$G$23:$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Tabelle1!$B$35:$B$46</c:f>
+              <c:f>Produktbacklog!$H$23:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Tabelle1!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Tabelle1!$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,18 +737,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="123321728"/>
-        <c:axId val="123757696"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="141555584"/>
+        <c:axId val="150877696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123321728"/>
+        <c:axId val="141555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -728,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123757696"/>
+        <c:crossAx val="150877696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,10 +794,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123757696"/>
+        <c:axId val="150877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -757,7 +814,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -788,20 +845,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123321728"/>
+        <c:crossAx val="141555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:alpha val="94000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1013,11 +1064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123246464"/>
-        <c:axId val="123248000"/>
+        <c:axId val="114640384"/>
+        <c:axId val="114641920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123246464"/>
+        <c:axId val="114640384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123248000"/>
+        <c:crossAx val="114641920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123248000"/>
+        <c:axId val="114641920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123246464"/>
+        <c:crossAx val="114640384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,11 +1303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125345792"/>
-        <c:axId val="125347328"/>
+        <c:axId val="63978880"/>
+        <c:axId val="63984768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125345792"/>
+        <c:axId val="63978880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125347328"/>
+        <c:crossAx val="63984768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125347328"/>
+        <c:axId val="63984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +1335,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125345792"/>
+        <c:crossAx val="63978880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1310,16 +1360,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1660,30 +1710,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="E8">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>320</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1976,15 +2002,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2092,313 +2123,538 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7">
-        <f>E2+E3+E4+E5+E6</f>
-        <v>34</v>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>8</v>
-      </c>
       <c r="B13">
-        <v>310</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>120</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>170</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>210</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>220</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>240</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>250</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>260</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>270</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>280</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>290</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>300</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>320</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33">
+        <f>H23+H24+H25+H26+H27+H28+H29+H30+H31+H32</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>350</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>360</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>370</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>310</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>312</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>320</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>330</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>340</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>210</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>220</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>230</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>240</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>250</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>260</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>270</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>280</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>290</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>330</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>300</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>320</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>330</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>340</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>350</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>83</v>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>342</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>400</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>390</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>410</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>420</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>440</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="6" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B37:C37">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,7 +2934,7 @@
       <c r="B29">
         <v>310</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D29">
@@ -2718,18 +2974,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>220</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D33">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2740,18 +2996,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>340</v>
       </c>
@@ -2762,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>341</v>
       </c>
@@ -2773,7 +3029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>342</v>
       </c>
@@ -2784,37 +3040,130 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>360</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>370</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>400</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>380</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>390</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>420</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>430</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>440</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>310</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2828,14 +3177,14 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
@@ -2897,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2919,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2941,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2963,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2985,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3007,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3045,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3067,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3105,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3127,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3149,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3187,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3209,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3231,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3253,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3262,7 +3611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3275,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3284,7 +3633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3313,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3335,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3357,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3383,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3405,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3427,7 +3776,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3448,9 +3797,6 @@
         <f>VLOOKUP(A29,Tabelle1!B:F,3,0)</f>
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
       <c r="E29">
         <v>1</v>
       </c>
@@ -3468,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3490,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3512,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3534,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3556,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3578,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3592,14 +3938,14 @@
         <v>360</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3621,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3635,103 +3981,193 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="e">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38" t="str">
         <f>VLOOKUP(A38,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C38" t="e">
+        <v>Als Mitarbeiter der Personalbteilung möchte ich ein ansprechendes und simples Interface in der Diensplanverwaltung (FX)</v>
+      </c>
+      <c r="C38">
         <f>VLOOKUP(A38,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" t="e">
+      <c r="A39">
+        <v>380</v>
+      </c>
+      <c r="B39" t="str">
         <f>VLOOKUP(A39,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C39" t="e">
+        <v>Als Mitarbeiter der Personalbteilung möchte ich ein ansprechendes und simples Menü</v>
+      </c>
+      <c r="C39">
         <f>VLOOKUP(A39,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" t="e">
+      <c r="A40">
+        <v>390</v>
+      </c>
+      <c r="B40" t="str">
         <f>VLOOKUP(A40,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C40" t="e">
+        <v>Als Mitarbeiter möchte ich meinen Wochenplan auf meinem Android Handy einsehen können</v>
+      </c>
+      <c r="C40">
         <f>VLOOKUP(A40,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="e">
+      <c r="A41">
+        <v>410</v>
+      </c>
+      <c r="B41" t="str">
         <f>VLOOKUP(A41,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C41" t="e">
+        <v>Als Mitarbeiter möchte ich ein ansprechendes und einheitliches Design der Website</v>
+      </c>
+      <c r="C41">
         <f>VLOOKUP(A41,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" t="e">
+      <c r="A42">
+        <v>220</v>
+      </c>
+      <c r="B42" t="str">
         <f>VLOOKUP(A42,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C42" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich einen Arbeitsplan erstellen/ändern können.</v>
+      </c>
+      <c r="C42">
         <f>VLOOKUP(A42,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" t="e">
+      <c r="A43">
+        <v>420</v>
+      </c>
+      <c r="B43" t="str">
         <f>VLOOKUP(A43,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C43" t="e">
+        <v>Als Mitarbeiter möchte ich ein Profil</v>
+      </c>
+      <c r="C43">
         <f>VLOOKUP(A43,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" t="e">
+      <c r="A44">
+        <v>430</v>
+      </c>
+      <c r="B44" t="str">
         <f>VLOOKUP(A44,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C44" t="e">
+        <v>Als Mitarbeiter möchte ich sehen ob mein Urlaubsantrag genehmigt wurde</v>
+      </c>
+      <c r="C44">
         <f>VLOOKUP(A44,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="e">
+      <c r="A45">
+        <v>440</v>
+      </c>
+      <c r="B45" t="str">
         <f>VLOOKUP(A45,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C45" t="e">
+        <v>Als Mitarbeiter möchte ich meinen Kollegen Nachrichten schreiben und empfangen können</v>
+      </c>
+      <c r="C45">
         <f>VLOOKUP(A45,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="e">
+      <c r="A46">
+        <v>310</v>
+      </c>
+      <c r="B46" t="str">
         <f>VLOOKUP(A46,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C46" t="e">
+        <v>Als Mitarbeiter möchte ich auch über meinen Browser, meine Arbeitsstunden einsehen können.</v>
+      </c>
+      <c r="C46">
         <f>VLOOKUP(A46,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="e">
+      <c r="A47">
+        <v>320</v>
+      </c>
+      <c r="B47" t="str">
         <f>VLOOKUP(A47,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C47" t="e">
+        <v>Als Mitarbeiter möchte ich mich über mein Android smartphone einloggen</v>
+      </c>
+      <c r="C47">
         <f>VLOOKUP(A47,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4259,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,7 +5149,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -529,14 +529,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -614,7 +607,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -739,11 +731,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="141555584"/>
-        <c:axId val="150877696"/>
+        <c:axId val="114800896"/>
+        <c:axId val="116350976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141555584"/>
+        <c:axId val="114800896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150877696"/>
+        <c:crossAx val="116350976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150877696"/>
+        <c:axId val="116350976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141555584"/>
+        <c:crossAx val="114800896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114640384"/>
-        <c:axId val="114641920"/>
+        <c:axId val="116278016"/>
+        <c:axId val="116279552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114640384"/>
+        <c:axId val="116278016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114641920"/>
+        <c:crossAx val="116279552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +1077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114641920"/>
+        <c:axId val="116279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114640384"/>
+        <c:crossAx val="116278016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,11 +1295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63978880"/>
-        <c:axId val="63984768"/>
+        <c:axId val="117013120"/>
+        <c:axId val="117031296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63978880"/>
+        <c:axId val="117013120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63984768"/>
+        <c:crossAx val="117031296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63984768"/>
+        <c:axId val="117031296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63978880"/>
+        <c:crossAx val="117013120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,32 +2606,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3176,15 +3168,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="75.88671875" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
@@ -4169,6 +4161,10 @@
       <c r="E47">
         <v>2</v>
       </c>
+      <c r="H47">
+        <f>SUM(C38:C47)</f>
+        <v>296</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
@@ -4681,8 +4677,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1 A1:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="H1 A1:F46 A48:F1048576 A47:E47 H47">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="5" r:id="rId1"/>
@@ -595,7 +595,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -607,6 +607,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -632,7 +633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -731,11 +732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114800896"/>
-        <c:axId val="116350976"/>
+        <c:axId val="162557952"/>
+        <c:axId val="162559488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114800896"/>
+        <c:axId val="162557952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,10 +776,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116350976"/>
+        <c:crossAx val="162559488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116350976"/>
+        <c:axId val="162559488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,10 +835,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114800896"/>
+        <c:crossAx val="162557952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -875,7 +876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -889,7 +890,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1056,11 +1057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116278016"/>
-        <c:axId val="116279552"/>
+        <c:axId val="61278464"/>
+        <c:axId val="61296640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116278016"/>
+        <c:axId val="61278464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116279552"/>
+        <c:crossAx val="61296640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1077,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116279552"/>
+        <c:axId val="61296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116278016"/>
+        <c:crossAx val="61278464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,7 +1123,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1295,11 +1296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117013120"/>
-        <c:axId val="117031296"/>
+        <c:axId val="162587008"/>
+        <c:axId val="162588544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117013120"/>
+        <c:axId val="162587008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117031296"/>
+        <c:crossAx val="162588544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117031296"/>
+        <c:axId val="162588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117013120"/>
+        <c:crossAx val="162587008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,17 +2001,17 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B49" sqref="B49:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="126.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="126.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>60</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>70</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>80</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>90</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>310</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>110</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>120</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>130</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>140</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>150</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>160</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>170</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>180</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>190</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>200</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>210</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>220</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>230</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>240</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>250</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>260</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>270</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>280</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>290</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>300</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>320</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>350</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>360</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>370</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>310</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>311</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>312</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>320</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>330</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>340</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>341</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>342</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>400</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>380</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>390</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>410</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>420</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>430</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>440</v>
       </c>
@@ -2645,17 +2646,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="98.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2917,12 +2918,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>330</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>340</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>341</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>342</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>350</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>360</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>370</v>
       </c>
@@ -3065,12 +3066,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>400</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>380</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>390</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>410</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>420</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>430</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>440</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>310</v>
       </c>
@@ -3168,21 +3169,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>360</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>400</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>380</v>
       </c>
@@ -4009,8 +4010,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>390</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -4048,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>220</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>420</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>430</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>440</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>310</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>320</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4176,7 +4180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" t="e">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4186,7 +4190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4196,7 +4200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4206,7 +4210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4216,7 +4220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4226,7 +4230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4236,7 +4240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4246,7 +4250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4256,7 +4260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4266,7 +4270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4276,7 +4280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4286,7 +4290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4296,7 +4300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4306,7 +4310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4316,7 +4320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4326,7 +4330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4336,7 +4340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4346,7 +4350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4356,7 +4360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4366,7 +4370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4376,7 +4380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4386,7 +4390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4396,7 +4400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4406,7 +4410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4416,7 +4420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4426,7 +4430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4436,7 +4440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4446,7 +4450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4456,7 +4460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4466,7 +4470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4476,7 +4480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4486,7 +4490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4496,7 +4500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4506,7 +4510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4516,7 +4520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4526,7 +4530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4536,7 +4540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4546,7 +4550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4556,7 +4560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4566,7 +4570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4576,7 +4580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4586,7 +4590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4599,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4612,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4622,7 +4626,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4632,7 +4636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4642,7 +4646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4652,25 +4656,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -4695,14 +4699,14 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4716,7 +4720,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Tabelle2!H2</f>
         <v>34</v>
@@ -4732,7 +4736,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4762,7 +4766,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4777,7 +4781,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4792,7 +4796,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4807,7 +4811,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4837,7 +4841,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4852,7 +4856,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4867,7 +4871,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4897,7 +4901,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4912,7 +4916,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4927,7 +4931,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4942,17 +4946,17 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Tabelle2!H37</f>
         <v>171</v>
@@ -4976,7 +4980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>160</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>160</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>147.80000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>140</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>140.19999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -5036,7 +5040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>120</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>109.80000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>60</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>60</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>71.800000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>52</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>52</v>
       </c>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
@@ -15,12 +15,12 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>Nr</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Als Mitarbeiter möchte ich meinen Kollegen Nachrichten schreiben und empfangen können</t>
+  </si>
+  <si>
+    <t>Gewisse Rollen können Mitarbeiter über Website anlegen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter muss ich mein Passwort ändern können</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -607,7 +641,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,11 +765,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162557952"/>
-        <c:axId val="162559488"/>
+        <c:axId val="211242280"/>
+        <c:axId val="211286600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162557952"/>
+        <c:axId val="211242280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +812,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162559488"/>
+        <c:crossAx val="211286600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162559488"/>
+        <c:axId val="211286600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +871,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162557952"/>
+        <c:crossAx val="211242280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1057,11 +1090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61278464"/>
-        <c:axId val="61296640"/>
+        <c:axId val="211058608"/>
+        <c:axId val="211736648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61278464"/>
+        <c:axId val="211058608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61296640"/>
+        <c:crossAx val="211736648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61296640"/>
+        <c:axId val="211736648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61278464"/>
+        <c:crossAx val="211058608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,13 +1327,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162587008"/>
-        <c:axId val="162588544"/>
+        <c:axId val="239348584"/>
+        <c:axId val="211776312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162587008"/>
+        <c:axId val="239348584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162588544"/>
+        <c:crossAx val="211776312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162588544"/>
+        <c:axId val="211776312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162587008"/>
+        <c:crossAx val="239348584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,9 +1741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1749,9 +1781,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,7 +1818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1821,7 +1853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2507,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>340</v>
       </c>
@@ -2521,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>341</v>
       </c>
@@ -2607,32 +2639,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2644,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,7 +3191,39 @@
         <v>20</v>
       </c>
     </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>450</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>460</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B52:C52">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:C53">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"MOD($A2:$A,10)"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3169,10 +3233,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>430</v>
       </c>
@@ -4109,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>440</v>
       </c>
@@ -4128,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>310</v>
       </c>
@@ -4146,8 +4210,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>320</v>
       </c>
@@ -4170,27 +4237,47 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B48" t="e">
-        <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
-        <f>VLOOKUP(A48,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B49" t="e">
-        <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
-        <f>VLOOKUP(A49,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>450</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>460</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4200,7 +4287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4210,7 +4297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4220,7 +4307,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4230,7 +4317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4240,7 +4327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4250,7 +4337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4260,7 +4347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4270,7 +4357,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4280,7 +4367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4290,7 +4377,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4300,7 +4387,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4310,7 +4397,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4320,7 +4407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4330,7 +4417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4682,7 +4769,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 A1:F46 A48:F1048576 A47:E47 H47">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4901,7 +4988,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4916,7 +5003,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4931,7 +5018,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4946,17 +5033,17 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
@@ -15,7 +15,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -355,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,21 +535,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -628,20 +614,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -670,13 +645,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -700,7 +673,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Produktbacklog!$G$23:$G$32</c:f>
@@ -755,29 +727,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211242280"/>
-        <c:axId val="211286600"/>
+        <c:axId val="83297024"/>
+        <c:axId val="83298560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211242280"/>
+        <c:axId val="83297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -812,19 +775,17 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211286600"/>
+        <c:crossAx val="83298560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211286600"/>
+        <c:axId val="83298560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -842,7 +803,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -871,7 +831,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211242280"/>
+        <c:crossAx val="83297024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,7 +845,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -914,7 +873,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -922,24 +881,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1008,7 +955,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1078,51 +1024,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="211058608"/>
-        <c:axId val="211736648"/>
+        <c:axId val="90953984"/>
+        <c:axId val="90963968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211058608"/>
+        <c:axId val="90953984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211736648"/>
+        <c:crossAx val="90963968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211736648"/>
+        <c:axId val="90963968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211058608"/>
+        <c:crossAx val="90953984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,21 +1063,19 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81421151248099599"/>
+          <c:x val="0.8142115124809961"/>
           <c:y val="0.4422110598244185"/>
-          <c:w val="0.18578839925711041"/>
-          <c:h val="0.13856638609828945"/>
+          <c:w val="0.18578839925711044"/>
+          <c:h val="0.13856638609828947"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1155,24 +1083,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1244,7 +1160,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1317,65 +1232,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="239348584"/>
-        <c:axId val="211776312"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="90981120"/>
+        <c:axId val="90982656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239348584"/>
+        <c:axId val="90981120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211776312"/>
+        <c:crossAx val="90982656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211776312"/>
+        <c:axId val="90982656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239348584"/>
+        <c:crossAx val="90981120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1484,7 +1382,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
@@ -1741,9 +1639,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1781,9 +1679,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1815,10 +1713,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1850,10 +1747,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2026,7 +1922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2037,13 +1933,13 @@
       <selection pane="bottomLeft" activeCell="B49" sqref="B49:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="126.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -2057,7 +1953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2075,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2093,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2111,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2129,7 +2025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2147,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>60</v>
       </c>
@@ -2155,7 +2051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>70</v>
       </c>
@@ -2163,7 +2059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>80</v>
       </c>
@@ -2171,7 +2067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>90</v>
       </c>
@@ -2179,7 +2075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2187,7 +2083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>310</v>
       </c>
@@ -2195,7 +2091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>110</v>
       </c>
@@ -2203,7 +2099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>120</v>
       </c>
@@ -2211,7 +2107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>130</v>
       </c>
@@ -2219,7 +2115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>140</v>
       </c>
@@ -2227,7 +2123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>150</v>
       </c>
@@ -2235,7 +2131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>160</v>
       </c>
@@ -2243,7 +2139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>170</v>
       </c>
@@ -2251,7 +2147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>180</v>
       </c>
@@ -2259,7 +2155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>190</v>
       </c>
@@ -2267,7 +2163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>200</v>
       </c>
@@ -2284,7 +2180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23">
         <v>210</v>
       </c>
@@ -2298,7 +2194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>220</v>
       </c>
@@ -2318,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>230</v>
       </c>
@@ -2329,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26">
         <v>240</v>
       </c>
@@ -2340,7 +2236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>250</v>
       </c>
@@ -2351,7 +2247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>260</v>
       </c>
@@ -2362,7 +2258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>270</v>
       </c>
@@ -2373,7 +2269,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>280</v>
       </c>
@@ -2384,7 +2280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>290</v>
       </c>
@@ -2395,7 +2291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32">
         <v>300</v>
       </c>
@@ -2406,7 +2302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>320</v>
       </c>
@@ -2427,7 +2323,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>350</v>
       </c>
@@ -2441,7 +2337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>360</v>
       </c>
@@ -2455,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36">
         <v>370</v>
       </c>
@@ -2469,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>310</v>
       </c>
@@ -2483,7 +2379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>311</v>
       </c>
@@ -2497,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39">
         <v>312</v>
       </c>
@@ -2511,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40">
         <v>320</v>
       </c>
@@ -2525,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41">
         <v>330</v>
       </c>
@@ -2539,7 +2435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>340</v>
       </c>
@@ -2553,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43">
         <v>341</v>
       </c>
@@ -2567,7 +2463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8">
       <c r="B44">
         <v>342</v>
       </c>
@@ -2581,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="B45">
         <v>400</v>
       </c>
@@ -2589,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46">
         <v>380</v>
       </c>
@@ -2597,7 +2493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8">
       <c r="B47">
         <v>390</v>
       </c>
@@ -2605,7 +2501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="B48">
         <v>410</v>
       </c>
@@ -2613,7 +2509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>420</v>
       </c>
@@ -2621,7 +2517,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>430</v>
       </c>
@@ -2629,7 +2525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>440</v>
       </c>
@@ -2639,32 +2535,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2675,20 +2571,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2696,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2730,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2738,7 +2634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2746,7 +2642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2754,7 +2650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2762,7 +2658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2770,7 +2666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2778,7 +2674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2803,7 +2699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2811,7 +2707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +2724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2836,7 +2732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2844,7 +2740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2852,7 +2748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2877,7 +2773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2885,7 +2781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2893,7 +2789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2901,7 +2797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2909,7 +2805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2934,7 +2830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2942,7 +2838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2950,12 +2846,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2966,7 +2862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2977,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2988,7 +2884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2999,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33">
         <v>220</v>
       </c>
@@ -3010,7 +2906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34">
         <v>320</v>
       </c>
@@ -3021,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35">
         <v>330</v>
       </c>
@@ -3032,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="B36">
         <v>340</v>
       </c>
@@ -3043,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="B37">
         <v>341</v>
       </c>
@@ -3054,7 +2950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38">
         <v>342</v>
       </c>
@@ -3065,7 +2961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39">
         <v>350</v>
       </c>
@@ -3076,7 +2972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40">
         <v>360</v>
       </c>
@@ -3087,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41">
         <v>370</v>
       </c>
@@ -3098,12 +2994,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="B44">
         <v>400</v>
       </c>
@@ -3114,7 +3010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45">
         <v>380</v>
       </c>
@@ -3125,7 +3021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46">
         <v>390</v>
       </c>
@@ -3136,7 +3032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47">
         <v>410</v>
       </c>
@@ -3147,7 +3043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48">
         <v>420</v>
       </c>
@@ -3158,7 +3054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49">
         <v>430</v>
       </c>
@@ -3169,7 +3065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50">
         <v>440</v>
       </c>
@@ -3180,7 +3076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51">
         <v>310</v>
       </c>
@@ -3191,7 +3087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52">
         <v>450</v>
       </c>
@@ -3202,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53">
         <v>460</v>
       </c>
@@ -3215,7 +3111,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3230,16 +3126,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -3247,7 +3143,7 @@
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +3166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -3290,7 +3186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3312,7 +3208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>22</v>
       </c>
@@ -3334,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>23</v>
       </c>
@@ -3356,7 +3252,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>24</v>
       </c>
@@ -3378,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>25</v>
       </c>
@@ -3400,7 +3296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>26</v>
       </c>
@@ -3422,7 +3318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -3438,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>31</v>
       </c>
@@ -3460,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>32</v>
       </c>
@@ -3482,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -3498,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>51</v>
       </c>
@@ -3520,7 +3416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>52</v>
       </c>
@@ -3542,7 +3438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>53</v>
       </c>
@@ -3564,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -3580,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>41</v>
       </c>
@@ -3602,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>42</v>
       </c>
@@ -3624,7 +3520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>43</v>
       </c>
@@ -3646,7 +3542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>44</v>
       </c>
@@ -3668,7 +3564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3690,7 +3586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3706,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3728,7 +3624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3750,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3776,7 +3672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3798,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3820,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3842,7 +3738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3858,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3880,7 +3776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3902,7 +3798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3924,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3946,7 +3842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3968,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3990,7 +3886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>360</v>
       </c>
@@ -4011,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>370</v>
       </c>
@@ -4037,7 +3933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>400</v>
       </c>
@@ -4056,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>380</v>
       </c>
@@ -4078,7 +3974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>390</v>
       </c>
@@ -4097,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>410</v>
       </c>
@@ -4116,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>220</v>
       </c>
@@ -4135,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>420</v>
       </c>
@@ -4153,8 +4049,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>430</v>
       </c>
@@ -4172,8 +4071,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>440</v>
       </c>
@@ -4191,8 +4093,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>310</v>
       </c>
@@ -4214,7 +4119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>320</v>
       </c>
@@ -4237,7 +4142,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>450</v>
       </c>
@@ -4257,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>460</v>
       </c>
@@ -4277,7 +4182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="B50" t="e">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4287,7 +4192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51" t="e">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4297,7 +4202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52" t="e">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4307,7 +4212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="B53" t="e">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4317,7 +4222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="B54" t="e">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4327,7 +4232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" t="e">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4337,7 +4242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="B56" t="e">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4347,7 +4252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4357,7 +4262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="B58" t="e">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4367,7 +4272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="B59" t="e">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4377,7 +4282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="B60" t="e">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4387,7 +4292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="B61" t="e">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4397,7 +4302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="B62" t="e">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4407,7 +4312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="B63" t="e">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4417,7 +4322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="B64" t="e">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4427,7 +4332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" t="e">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4437,7 +4342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" t="e">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4447,7 +4352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" t="e">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4457,7 +4362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" t="e">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4467,7 +4372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4477,7 +4382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4487,7 +4392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4497,7 +4402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4507,7 +4412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4517,7 +4422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4527,7 +4432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4537,7 +4442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4547,7 +4452,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4557,7 +4462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4567,7 +4472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4577,7 +4482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4587,7 +4492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4597,7 +4502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4607,7 +4512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4617,7 +4522,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4627,7 +4532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4637,7 +4542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4647,7 +4552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4657,7 +4562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4667,7 +4572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4677,7 +4582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4690,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4703,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4713,7 +4618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4723,7 +4628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4733,7 +4638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4743,25 +4648,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
@@ -4769,7 +4674,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 A1:F46 A48:F1048576 A47:E47 H47">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4779,21 +4684,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4807,7 +4712,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <f>Tabelle2!H2</f>
         <v>34</v>
@@ -4823,7 +4728,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>30</v>
       </c>
@@ -4838,7 +4743,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4853,7 +4758,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4868,7 +4773,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4883,7 +4788,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4898,7 +4803,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4913,7 +4818,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4928,7 +4833,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4943,7 +4848,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4958,7 +4863,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4973,7 +4878,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4988,7 +4893,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>10</v>
       </c>
@@ -5003,7 +4908,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>10</v>
       </c>
@@ -5018,7 +4923,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>8</v>
       </c>
@@ -5033,17 +4938,17 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5054,7 +4959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <f>Tabelle2!H37</f>
         <v>171</v>
@@ -5067,7 +4972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>160</v>
       </c>
@@ -5079,7 +4984,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>160</v>
       </c>
@@ -5091,7 +4996,7 @@
         <v>147.80000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>140</v>
       </c>
@@ -5103,7 +5008,7 @@
         <v>140.19999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>120</v>
       </c>
@@ -5115,7 +5020,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>120</v>
       </c>
@@ -5127,7 +5032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>120</v>
       </c>
@@ -5139,7 +5044,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>120</v>
       </c>
@@ -5151,7 +5056,7 @@
         <v>109.80000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>90</v>
       </c>
@@ -5163,7 +5068,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>80</v>
       </c>
@@ -5175,7 +5080,7 @@
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>60</v>
       </c>
@@ -5187,7 +5092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>60</v>
       </c>
@@ -5199,7 +5104,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -5211,7 +5116,7 @@
         <v>71.800000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>52</v>
       </c>
@@ -5223,7 +5128,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>52</v>
       </c>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6570" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>Nr</t>
   </si>
@@ -220,9 +220,6 @@
     <t xml:space="preserve">Als Administrator möchte ich Einträge die Anwender gemacht haben ändern können. </t>
   </si>
   <si>
-    <t>Als Administrator möchte ich Reports erhalten, wann und von wem Einträge gemacht wurden.</t>
-  </si>
-  <si>
     <t>Als Mitarbeiter möchte ich auch mit meinem Android Smartphone Urlaubsanträge stellen können.</t>
   </si>
   <si>
@@ -344,6 +341,57 @@
   </si>
   <si>
     <t>Als Mitarbeiter möchte ich meinen Kollegen Nachrichten schreiben und empfangen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich über mein IOS smartphone einloggen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalbteilung und Administrator möchte ich Mitarbeiter über den Browser anlegen können</t>
+  </si>
+  <si>
+    <t>4.Sprint</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich die Fähigkeiten des Mitarbeiters festlegen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte mich für eine bestimme Funktion eintragen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich Nachrichten schreiben und empfangen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich über mein IOS smartphone einloggen in die Datenbank</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich die Stundenbestätigen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich mir die Vorschläge für den DP von den Mitarbeitern anzeigen lassen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich für einen Dienst eintragen können</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mein Passwort ändern können / und per Email zugeschickt bekommen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich mich für einen Dienst eintragen können im Browser</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter möchte ich sehen welche meiner Urlaubsantrag genehmigt wurden als Liste</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich Einstellungen für den Dienstplan</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich Einstellungen für den Dienstplan vornehmen</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich die Rolle des Mitarbeiters festlegen können über dropdown!</t>
+  </si>
+  <si>
+    <t>Als Mitarbeiter der Personalabteilung möchte ich die Rolle des Mitarbeiters festlegen können über dropdown und doppelte Psw eingabe</t>
   </si>
 </sst>
 </file>
@@ -359,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -525,11 +579,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -607,7 +720,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,11 +844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162557952"/>
-        <c:axId val="162559488"/>
+        <c:axId val="114018560"/>
+        <c:axId val="114454528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162557952"/>
+        <c:axId val="114018560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +891,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162559488"/>
+        <c:crossAx val="114454528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162559488"/>
+        <c:axId val="114454528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +950,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162557952"/>
+        <c:crossAx val="114018560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1057,11 +1169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61278464"/>
-        <c:axId val="61296640"/>
+        <c:axId val="140337920"/>
+        <c:axId val="140339456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61278464"/>
+        <c:axId val="140337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61296640"/>
+        <c:crossAx val="140339456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61296640"/>
+        <c:axId val="140339456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61278464"/>
+        <c:crossAx val="140337920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,11 +1408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162587008"/>
-        <c:axId val="162588544"/>
+        <c:axId val="140364416"/>
+        <c:axId val="140378496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162587008"/>
+        <c:axId val="140364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162588544"/>
+        <c:crossAx val="140378496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162588544"/>
+        <c:axId val="140378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,13 +1440,244 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162587008"/>
+        <c:crossAx val="140364416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StoryPoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$A$45:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SprintBurndownchart!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diagonale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SprintBurndownchart!$C$45:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140403456"/>
+        <c:axId val="140404992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140403456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140404992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140404992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140403456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1443,6 +1786,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1998,20 +2371,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C51"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="126.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="126.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -2025,14 +2398,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="16" t="str">
         <f>VLOOKUP(B2,[1]Tabelle1!B:F,2,0)</f>
         <v>Als Mitarbeiter möchte ich mich einloggen können</v>
       </c>
@@ -2043,14 +2416,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="16" t="str">
         <f>VLOOKUP(B3,[1]Tabelle1!B:F,2,0)</f>
         <v>Als Personalleiter möchte ich mich einloggen können</v>
       </c>
@@ -2061,14 +2434,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="16" t="str">
         <f>VLOOKUP(B4,[1]Tabelle1!B:F,2,0)</f>
         <v>Als Mitarbeiter der Personalabteilung möchte ich neue Mitarbeiter anlegen können</v>
       </c>
@@ -2079,14 +2452,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="16" t="str">
         <f>VLOOKUP(B5,[1]Tabelle1!B:F,2,0)</f>
         <v>Als Mitarbeiter der Personalabteilung möchte ich Mitarbeiter verwalten (ändern + löschen) können</v>
       </c>
@@ -2097,14 +2470,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>VLOOKUP(B6,[1]Tabelle1!B:F,2,0)</f>
         <v>Als Mitarbeiter der Personalabteilung  möchte ich Mitarbeiter suchen können</v>
       </c>
@@ -2115,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>60</v>
       </c>
@@ -2123,15 +2496,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>70</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>80</v>
       </c>
@@ -2139,7 +2512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>90</v>
       </c>
@@ -2147,7 +2520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2155,91 +2528,91 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>310</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>110</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>120</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>130</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>140</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>160</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>170</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>180</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>190</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>200</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D22">
@@ -2249,24 +2622,24 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>210</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>69</v>
+      <c r="C23" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>220</v>
       </c>
@@ -2280,105 +2653,105 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>230</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>240</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>250</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>260</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>73</v>
+      <c r="C28" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>270</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>74</v>
+      <c r="C29" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>280</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>290</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>300</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>320</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D33">
@@ -2388,19 +2761,19 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33">
         <f>H23+H24+H25+H26+H27+H28+H29+H30+H31+H32</f>
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>350</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>79</v>
+      <c r="C34" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2409,12 +2782,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>360</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2423,25 +2796,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>370</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>310</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D37">
@@ -2451,11 +2821,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>311</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D38">
@@ -2465,7 +2835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>312</v>
       </c>
@@ -2479,11 +2849,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>320</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D40">
@@ -2493,12 +2863,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>330</v>
       </c>
-      <c r="C41" t="s">
-        <v>78</v>
+      <c r="C41" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2507,11 +2877,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>340</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D42">
@@ -2521,11 +2891,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>341</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D43">
@@ -2535,11 +2905,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>342</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D44">
@@ -2549,90 +2919,178 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>400</v>
       </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>380</v>
       </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>410</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>420</v>
       </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>430</v>
       </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>440</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>470</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>450</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>460</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>471</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>441</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>510</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>371</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>372</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>430</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>472</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2644,19 +3102,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2664,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2681,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +3156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -2706,7 +3164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>22</v>
       </c>
@@ -2714,7 +3172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>23</v>
       </c>
@@ -2722,7 +3180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>24</v>
       </c>
@@ -2730,7 +3188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2738,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2746,7 +3204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2763,7 +3221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2771,7 +3229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2779,7 +3237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +3254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>51</v>
       </c>
@@ -2804,7 +3262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>52</v>
       </c>
@@ -2812,7 +3270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>53</v>
       </c>
@@ -2820,7 +3278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +3295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -2845,7 +3303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42</v>
       </c>
@@ -2853,7 +3311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>43</v>
       </c>
@@ -2861,7 +3319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>44</v>
       </c>
@@ -2869,7 +3327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>45</v>
       </c>
@@ -2877,7 +3335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2894,7 +3352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -2902,7 +3360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2910,7 +3368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2918,12 +3376,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>310</v>
       </c>
@@ -2934,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>311</v>
       </c>
@@ -2945,7 +3403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>200</v>
       </c>
@@ -2956,7 +3414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>310</v>
       </c>
@@ -2967,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>220</v>
       </c>
@@ -2978,7 +3436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>320</v>
       </c>
@@ -2989,18 +3447,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>340</v>
       </c>
@@ -3011,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>341</v>
       </c>
@@ -3022,7 +3480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>342</v>
       </c>
@@ -3033,122 +3491,122 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>360</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>370</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>400</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>380</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>410</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>420</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>430</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>440</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>310</v>
       </c>
@@ -3157,6 +3615,220 @@
       </c>
       <c r="D51">
         <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>450</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>460</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>312</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>390</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>470</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>471</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>110</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>160</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>130</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>140</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>360</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>370</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>441</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>510</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>371</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>372</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>431</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>472</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3167,23 +3839,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="2" max="2" width="110.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3206,7 +3878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -3226,7 +3898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3239,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3248,7 +3920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -3261,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3270,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -3283,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3292,7 +3964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -3305,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3314,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -3327,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3336,7 +4008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -3349,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3358,7 +4030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -3374,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -3387,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3396,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -3409,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3418,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -3434,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -3447,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3456,7 +4128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -3469,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3478,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
@@ -3491,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3500,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -3516,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41</v>
       </c>
@@ -3529,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3538,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -3551,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3560,7 +4232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43</v>
       </c>
@@ -3573,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3582,7 +4254,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -3595,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3604,7 +4276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -3617,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3626,7 +4298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -3642,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3655,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3664,7 +4336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3677,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3686,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3699,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3711,8 +4383,12 @@
         <f>SUM(C26:C34)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f>SUM(F3:F25)/H25</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>310</v>
       </c>
@@ -3725,7 +4401,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3734,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>311</v>
       </c>
@@ -3747,7 +4423,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3756,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -3769,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3778,7 +4454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>220</v>
       </c>
@@ -3794,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>320</v>
       </c>
@@ -3807,7 +4483,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3816,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>330</v>
       </c>
@@ -3829,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3838,7 +4514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>340</v>
       </c>
@@ -3851,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3860,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>341</v>
       </c>
@@ -3873,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3882,7 +4558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>342</v>
       </c>
@@ -3895,7 +4571,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3904,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3917,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3926,19 +4602,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>360</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(A36,Tabelle1!B:F,3,0)</f>
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3947,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>370</v>
       </c>
@@ -3960,7 +4636,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3972,8 +4648,12 @@
         <f>SUM(C27:C37)</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f>SUM(F26:F37)/H37</f>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>400</v>
       </c>
@@ -3986,13 +4666,16 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>380</v>
       </c>
@@ -4005,7 +4688,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4014,7 +4697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>390</v>
       </c>
@@ -4027,13 +4710,16 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -4046,13 +4732,16 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>220</v>
       </c>
@@ -4065,13 +4754,16 @@
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>420</v>
       </c>
@@ -4084,13 +4776,16 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>430</v>
       </c>
@@ -4103,13 +4798,16 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>440</v>
       </c>
@@ -4122,13 +4820,16 @@
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>310</v>
       </c>
@@ -4141,13 +4842,16 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>320</v>
       </c>
@@ -4160,107 +4864,204 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
       <c r="H47">
-        <f>SUM(C38:C47)</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B48" t="e">
+        <f>SUM(C38:C48)</f>
+        <v>338</v>
+      </c>
+      <c r="I47">
+        <f>SUM(F38:F47)/H47</f>
+        <v>0.3875739644970414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>500</v>
+      </c>
+      <c r="B48" t="str">
         <f>VLOOKUP(A48,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
+        <v>Als Mitarbeiter möchte ich mich über mein IOS smartphone einloggen</v>
+      </c>
+      <c r="C48">
         <f>VLOOKUP(A48,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B49" t="e">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>450</v>
+      </c>
+      <c r="B49" t="str">
         <f>VLOOKUP(A49,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
+        <v>Als Mitarbeiter der Personalbteilung und Administrator möchte ich Mitarbeiter über den Browser anlegen können</v>
+      </c>
+      <c r="C49">
         <f>VLOOKUP(A49,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B50" t="e">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>460</v>
+      </c>
+      <c r="B50" t="str">
         <f>VLOOKUP(A50,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50" t="e">
+        <v>Als Mitarbeiter möchte ich mein Passwort ändern können / und per Email zugeschickt bekommen</v>
+      </c>
+      <c r="C50">
         <f>VLOOKUP(A50,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B51" t="e">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>312</v>
+      </c>
+      <c r="B51" t="str">
         <f>VLOOKUP(A51,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C51" t="e">
+        <v>Als Geschäftsleiter möchte ich Urlaubsanträge einsehen können</v>
+      </c>
+      <c r="C51">
         <f>VLOOKUP(A51,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B52" t="e">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>390</v>
+      </c>
+      <c r="B52" t="str">
         <f>VLOOKUP(A52,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C52" t="e">
+        <v>Als Mitarbeiter möchte ich meinen Wochenplan auf meinem Android Handy einsehen können</v>
+      </c>
+      <c r="C52">
         <f>VLOOKUP(A52,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B53" t="e">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>470</v>
+      </c>
+      <c r="B53" t="str">
         <f>VLOOKUP(A53,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich die Fähigkeiten des Mitarbeiters festlegen</v>
+      </c>
+      <c r="C53">
         <f>VLOOKUP(A53,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B54" t="e">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>471</v>
+      </c>
+      <c r="B54" t="str">
         <f>VLOOKUP(A54,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C54" t="e">
+        <v>Als Mitarbeiter möchte mich für eine bestimme Funktion eintragen können</v>
+      </c>
+      <c r="C54">
         <f>VLOOKUP(A54,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B55" t="e">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>310</v>
+      </c>
+      <c r="B55" t="str">
         <f>VLOOKUP(A55,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C55" t="e">
+        <v>Als Mitarbeiter möchte ich auch über meinen Browser, meine Arbeitsstunden einsehen können.</v>
+      </c>
+      <c r="C55">
         <f>VLOOKUP(A55,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B56" t="e">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>110</v>
+      </c>
+      <c r="B56" t="str">
         <f>VLOOKUP(A56,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C56" t="e">
+        <v>Als Administrator möchte ich einfach von meinem Arbeitsplatz aus, Berechtigungen erteilen können.</v>
+      </c>
+      <c r="C56">
         <f>VLOOKUP(A56,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="e">
         <f>VLOOKUP(A57,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4269,118 +5070,217 @@
         <f>VLOOKUP(A57,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B58" t="e">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>160</v>
+      </c>
+      <c r="B58" t="str">
         <f>VLOOKUP(A58,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C58" t="e">
+        <v>Als Administrator möchte ich Einstellungen für den Dienstplan vornehmen</v>
+      </c>
+      <c r="C58">
         <f>VLOOKUP(A58,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="e">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>140</v>
+      </c>
+      <c r="B59" t="str">
         <f>VLOOKUP(A59,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C59" t="e">
+        <v>Als Administrator möchte ich eine Stelle für Feedbacks von Anwendern und zum Erkennen von Wartungs- und Verbesserungsarbeiten.</v>
+      </c>
+      <c r="C59">
         <f>VLOOKUP(A59,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="e">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>360</v>
+      </c>
+      <c r="B60" t="str">
         <f>VLOOKUP(A60,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C60" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich den Dienstplan verändern können</v>
+      </c>
+      <c r="C60">
         <f>VLOOKUP(A60,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="e">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>370</v>
+      </c>
+      <c r="B61" t="str">
         <f>VLOOKUP(A61,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Stunden in den Dienstplan eintragen können</v>
+      </c>
+      <c r="C61">
         <f>VLOOKUP(A61,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="e">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>441</v>
+      </c>
+      <c r="B62" t="str">
         <f>VLOOKUP(A62,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich Nachrichten schreiben und empfangen können</v>
+      </c>
+      <c r="C62">
         <f>VLOOKUP(A62,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="e">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>510</v>
+      </c>
+      <c r="B63" t="str">
         <f>VLOOKUP(A63,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C63" t="e">
+        <v>Als Mitarbeiter möchte ich mich über mein IOS smartphone einloggen in die Datenbank</v>
+      </c>
+      <c r="C63">
         <f>VLOOKUP(A63,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="e">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>371</v>
+      </c>
+      <c r="B64" t="str">
         <f>VLOOKUP(A64,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich mir die Vorschläge für den DP von den Mitarbeitern anzeigen lassen</v>
+      </c>
+      <c r="C64">
         <f>VLOOKUP(A64,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="e">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>372</v>
+      </c>
+      <c r="B65" t="str">
         <f>VLOOKUP(A65,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" t="e">
+        <v>Als Mitarbeiter möchte ich mich für einen Dienst eintragen können</v>
+      </c>
+      <c r="C65">
         <f>VLOOKUP(A65,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="e">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>410</v>
+      </c>
+      <c r="B66" t="str">
         <f>VLOOKUP(A66,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C66" t="e">
+        <v>Als Mitarbeiter möchte ich ein ansprechendes und einheitliches Design der Website</v>
+      </c>
+      <c r="C66">
         <f>VLOOKUP(A66,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="e">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>431</v>
+      </c>
+      <c r="B67" t="str">
         <f>VLOOKUP(A67,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C67" t="e">
+        <v>Als Mitarbeiter möchte ich sehen welche meiner Urlaubsantrag genehmigt wurden als Liste</v>
+      </c>
+      <c r="C67">
         <f>VLOOKUP(A67,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="e">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>472</v>
+      </c>
+      <c r="B68" t="str">
         <f>VLOOKUP(A68,Tabelle1!B:F,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C68" t="e">
+        <v>Als Mitarbeiter der Personalabteilung möchte ich die Rolle des Mitarbeiters festlegen können über dropdown und doppelte Psw eingabe</v>
+      </c>
+      <c r="C68">
         <f>VLOOKUP(A68,Tabelle1!B:F,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" t="e">
         <f>VLOOKUP(A69,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4390,7 +5290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" t="e">
         <f>VLOOKUP(A70,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4400,7 +5300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" t="e">
         <f>VLOOKUP(A71,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4410,7 +5310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="e">
         <f>VLOOKUP(A72,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4420,7 +5320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="e">
         <f>VLOOKUP(A73,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4430,7 +5330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="e">
         <f>VLOOKUP(A74,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4440,7 +5340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" t="e">
         <f>VLOOKUP(A75,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4450,7 +5350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" t="e">
         <f>VLOOKUP(A76,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4460,7 +5360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" t="e">
         <f>VLOOKUP(A77,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4470,7 +5370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" t="e">
         <f>VLOOKUP(A78,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4480,7 +5380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" t="e">
         <f>VLOOKUP(A79,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4490,7 +5390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="e">
         <f>VLOOKUP(A80,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4500,7 +5400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="e">
         <f>VLOOKUP(A81,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4510,7 +5410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="e">
         <f>VLOOKUP(A82,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4520,7 +5420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="e">
         <f>VLOOKUP(A83,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4530,7 +5430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="e">
         <f>VLOOKUP(A84,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4540,7 +5440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="e">
         <f>VLOOKUP(A85,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4550,7 +5450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="e">
         <f>VLOOKUP(A86,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4560,7 +5460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="e">
         <f>VLOOKUP(A87,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4570,7 +5470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="e">
         <f>VLOOKUP(A88,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4580,7 +5480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="e">
         <f>VLOOKUP(A89,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4590,7 +5490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="e">
         <f>VLOOKUP(A90,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4603,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="e">
         <f>VLOOKUP(A91,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4616,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="e">
         <f>VLOOKUP(A92,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4626,7 +5526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="e">
         <f>VLOOKUP(A93,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4636,7 +5536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="e">
         <f>VLOOKUP(A94,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4646,7 +5546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="e">
         <f>VLOOKUP(A95,Tabelle1!B:F,2,0)</f>
         <v>#N/A</v>
@@ -4656,33 +5556,33 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C96" t="e">
         <f>VLOOKUP(A96,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" t="e">
         <f>VLOOKUP(A97,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" t="e">
         <f>VLOOKUP(A98,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" t="e">
         <f>VLOOKUP(A99,Tabelle1!B:F,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1 A1:F46 A48:F1048576 A47:E47 H47">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H1 H47 A1:F50 A60:A63 B60:D65 A51:D59 E51:F65 A66:F1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>"MOD($A2:$A,10)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,20 +5593,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4720,7 +5620,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Tabelle2!H2</f>
         <v>34</v>
@@ -4736,7 +5636,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -4751,7 +5651,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4766,7 +5666,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4781,7 +5681,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4796,7 +5696,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4811,7 +5711,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4826,7 +5726,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4841,7 +5741,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4856,7 +5756,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4871,7 +5771,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4886,7 +5786,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4901,7 +5801,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4916,7 +5816,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4931,7 +5831,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4946,17 +5846,17 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4967,7 +5867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>Tabelle2!H37</f>
         <v>171</v>
@@ -4980,7 +5880,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>160</v>
       </c>
@@ -4992,7 +5892,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>160</v>
       </c>
@@ -5004,7 +5904,7 @@
         <v>147.80000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>140</v>
       </c>
@@ -5016,7 +5916,7 @@
         <v>140.19999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -5028,7 +5928,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -5040,7 +5940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -5052,7 +5952,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>120</v>
       </c>
@@ -5064,7 +5964,7 @@
         <v>109.80000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90</v>
       </c>
@@ -5076,7 +5976,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80</v>
       </c>
@@ -5088,7 +5988,7 @@
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>60</v>
       </c>
@@ -5100,7 +6000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>60</v>
       </c>
@@ -5112,7 +6012,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -5124,7 +6024,7 @@
         <v>71.800000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>52</v>
       </c>
@@ -5136,7 +6036,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>52</v>
       </c>
@@ -5146,6 +6046,198 @@
       <c r="C41">
         <f>A41</f>
         <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>Tabelle2!H47</f>
+        <v>338</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>A45</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f>-21*B46+327</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C58" si="2">-21*B47+327</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>290</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>240</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>200</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>150</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>120</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <f>A59</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
